--- a/ポケモン不思議のダンジョン救助隊DX.xlsx
+++ b/ポケモン不思議のダンジョン救助隊DX.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12330" windowHeight="18060"/>
+    <workbookView windowWidth="19050" windowHeight="17580"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
+    <sheet name="公式换算" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176">
   <si>
     <t>Switch P5S自助DIY数据表 by 露易娘
 http://ruisan.blog.jp/
@@ -26,6 +27,9 @@
 BID：9dda1efeef70de46</t>
   </si>
   <si>
+    <t>感谢浅汐协助完成算法</t>
+  </si>
+  <si>
     <t>No.1</t>
   </si>
   <si>
@@ -88,6 +92,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>4E20</t>
     </r>
     <r>
@@ -647,6 +657,441 @@
   </si>
   <si>
     <t>MAIN+0x05562A24</t>
+  </si>
+  <si>
+    <t>队伍一角色1</t>
+  </si>
+  <si>
+    <t>02000000</t>
+  </si>
+  <si>
+    <t>000003E7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饥饿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感</t>
+    </r>
+  </si>
+  <si>
+    <t>00004E20</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>击</t>
+    </r>
+  </si>
+  <si>
+    <t>000001F4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PP</t>
+    </r>
+  </si>
+  <si>
+    <t>01000000</t>
+  </si>
+  <si>
+    <t>00000023</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PP</t>
+    </r>
+  </si>
+  <si>
+    <t>10进制偏移</t>
+  </si>
+  <si>
+    <t>队伍一角色2</t>
+  </si>
+  <si>
+    <t>队伍一角色3</t>
+  </si>
+  <si>
+    <t>队伍二角色1</t>
+  </si>
+  <si>
+    <t>队伍二角色2</t>
+  </si>
+  <si>
+    <t>队伍二角色3</t>
+  </si>
+  <si>
+    <t>队伍三角色1</t>
+  </si>
+  <si>
+    <t>队伍三角色2</t>
+  </si>
+  <si>
+    <t>队伍三角色3</t>
+  </si>
+  <si>
+    <t>队伍四角色1</t>
+  </si>
+  <si>
+    <t>队伍四角色2</t>
+  </si>
+  <si>
+    <t>队伍四角色3</t>
+  </si>
+  <si>
+    <t>队伍五角色1</t>
+  </si>
+  <si>
+    <t>队伍五角色2</t>
+  </si>
+  <si>
+    <t>队伍五角色3</t>
+  </si>
+  <si>
+    <t>队伍六角色1</t>
+  </si>
+  <si>
+    <t>队伍六角色2</t>
+  </si>
+  <si>
+    <t>队伍六角色3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>起始</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进制（为减少偏移值量）</t>
+    </r>
+  </si>
+  <si>
+    <t>05562140</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与偏移值合计</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进制结果</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抓取 攻击 转</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进制</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抓取 防御 转</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进制</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抓取 特攻 转</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进制</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>抓取 特防 转</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进制</t>
+    </r>
+  </si>
+  <si>
+    <t>抓取 A键PP 转10进制</t>
+  </si>
+  <si>
+    <t>抓取 B键PP 转10进制</t>
+  </si>
+  <si>
+    <t>抓取 X键PP 转10进制</t>
   </si>
 </sst>
 </file>
@@ -654,18 +1099,49 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="MS Gothic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -682,13 +1158,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1163,10 +1639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1175,174 +1651,201 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1696,886 +2199,891 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="7" style="10" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="10" customWidth="1"/>
+    <col min="4" max="5" width="17.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="13" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="D10" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="F10" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="A11" s="14"/>
+      <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="D11" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="C12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="A12" s="14"/>
+      <c r="C12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="E12" s="16" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="A13" s="14"/>
+      <c r="C13" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="D13" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="A14" s="14"/>
+      <c r="C14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="F14" s="17" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4"/>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="A15" s="14"/>
+      <c r="C15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="E15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4"/>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="A16" s="14"/>
+      <c r="C16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="E16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4"/>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="A17" s="14"/>
+      <c r="C17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="E17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="A18" s="14"/>
+      <c r="C18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="10" t="s">
         <v>30</v>
       </c>
+      <c r="F18" s="17" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4"/>
-      <c r="C19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="A19" s="14"/>
+      <c r="C19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="19" t="s">
         <v>34</v>
       </c>
+      <c r="F19" s="17" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="C20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="A20" s="14"/>
+      <c r="C20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="D20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="4"/>
-      <c r="C21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="A21" s="14"/>
+      <c r="C21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="D21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="C22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="A22" s="14"/>
+      <c r="C22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="D22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4"/>
-      <c r="B23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="14"/>
+      <c r="C24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="14"/>
+      <c r="C25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="14"/>
+      <c r="C26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="14"/>
+      <c r="C27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="14"/>
+      <c r="C28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="14"/>
+      <c r="C29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="14"/>
+      <c r="C30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="14"/>
+      <c r="C31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="14"/>
+      <c r="C32" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="14"/>
+      <c r="C33" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="14"/>
+      <c r="C34" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="14"/>
+      <c r="C35" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="14"/>
+      <c r="B36" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="14"/>
+      <c r="C37" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="14"/>
+      <c r="C38" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="14"/>
+      <c r="C39" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="14"/>
+      <c r="C40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="14"/>
+      <c r="C41" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="14"/>
+      <c r="C42" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="14"/>
+      <c r="C43" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="14"/>
+      <c r="C44" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="14"/>
+      <c r="C45" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="14"/>
+      <c r="C46" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="14"/>
+      <c r="C47" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="14"/>
+      <c r="C48" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="C49" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="14"/>
+      <c r="C50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="14"/>
+      <c r="C51" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="14"/>
+      <c r="C52" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="14"/>
+      <c r="C53" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="14"/>
+      <c r="C54" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="14"/>
+      <c r="C55" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="14"/>
+      <c r="C56" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="14"/>
+      <c r="C57" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="14"/>
+      <c r="C58" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="18"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="14"/>
+      <c r="C59" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="18"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="14"/>
+      <c r="C60" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60" s="18"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="14"/>
+      <c r="C61" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="18"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="14"/>
+      <c r="B62" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4"/>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4"/>
-      <c r="C25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4"/>
-      <c r="C26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="4"/>
-      <c r="C27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="4"/>
-      <c r="C28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="4"/>
-      <c r="C29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="4"/>
-      <c r="C30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="4"/>
-      <c r="C31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="4"/>
-      <c r="C32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="4"/>
-      <c r="C33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="4"/>
-      <c r="C34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="4"/>
-      <c r="C35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="4"/>
-      <c r="B36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="C62" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="14"/>
+      <c r="C63" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="14"/>
+      <c r="C64" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="14"/>
+      <c r="C65" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="14"/>
+      <c r="C66" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="14"/>
+      <c r="C67" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="14"/>
+      <c r="C68" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="14"/>
+      <c r="C69" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="14"/>
+      <c r="C70" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="14"/>
+      <c r="C71" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="14"/>
+      <c r="C72" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="14"/>
+      <c r="C73" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="14"/>
+      <c r="C74" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="14"/>
+      <c r="B75" s="10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="4"/>
-      <c r="C37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="4"/>
-      <c r="C38" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="4"/>
-      <c r="C39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="4"/>
-      <c r="C40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="4"/>
-      <c r="C41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="4"/>
-      <c r="C42" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="4"/>
-      <c r="C43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="4"/>
-      <c r="C44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="4"/>
-      <c r="C45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="4"/>
-      <c r="C46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="4"/>
-      <c r="C47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="4"/>
-      <c r="C48" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="4"/>
-      <c r="C50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="4"/>
-      <c r="C51" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="4"/>
-      <c r="C52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="4"/>
-      <c r="C53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="4"/>
-      <c r="C54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="4"/>
-      <c r="C55" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="4"/>
-      <c r="C56" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="4"/>
-      <c r="C57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="4"/>
-      <c r="C58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E58" s="9"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="4"/>
-      <c r="C59" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E59" s="9"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="4"/>
-      <c r="C60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E60" s="9"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="4"/>
-      <c r="C61" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" s="9"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="4"/>
-      <c r="B62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="4"/>
-      <c r="C63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="4"/>
-      <c r="C64" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="4"/>
-      <c r="C65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="4"/>
-      <c r="C66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="4"/>
-      <c r="C67" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="4"/>
-      <c r="C68" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="4"/>
-      <c r="C69" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="4"/>
-      <c r="C70" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="4"/>
-      <c r="C71" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="4"/>
-      <c r="C72" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="4"/>
-      <c r="C73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="4"/>
-      <c r="C74" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="4"/>
-      <c r="B75" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>116</v>
+      <c r="C75" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="4"/>
-      <c r="C76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>117</v>
+      <c r="A76" s="14"/>
+      <c r="C76" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="4"/>
-      <c r="C77" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>118</v>
+      <c r="A77" s="14"/>
+      <c r="C77" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="4"/>
-      <c r="C78" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>119</v>
+      <c r="A78" s="14"/>
+      <c r="C78" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="4"/>
-      <c r="C79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E79" s="1" t="s">
+      <c r="A79" s="14"/>
+      <c r="C79" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="10" t="s">
         <v>121</v>
       </c>
+      <c r="E79" s="10" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="4"/>
-      <c r="C80" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E80" s="1" t="s">
+      <c r="A80" s="14"/>
+      <c r="C80" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="10" t="s">
         <v>123</v>
       </c>
+      <c r="E80" s="10" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="4"/>
-      <c r="C81" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E81" s="1" t="s">
+      <c r="A81" s="14"/>
+      <c r="C81" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="10" t="s">
         <v>125</v>
       </c>
+      <c r="E81" s="10" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="4"/>
-      <c r="C82" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E82" s="1" t="s">
+      <c r="A82" s="14"/>
+      <c r="C82" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="10" t="s">
         <v>127</v>
       </c>
+      <c r="E82" s="10" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="4"/>
-      <c r="C83" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E83" s="1" t="s">
+      <c r="A83" s="14"/>
+      <c r="C83" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="10" t="s">
         <v>129</v>
       </c>
+      <c r="E83" s="10" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="4"/>
-      <c r="C84" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>130</v>
+      <c r="A84" s="14"/>
+      <c r="C84" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="4"/>
-      <c r="C85" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>131</v>
+      <c r="A85" s="14"/>
+      <c r="C85" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="4"/>
-      <c r="C86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>132</v>
+      <c r="A86" s="14"/>
+      <c r="C86" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="4"/>
-      <c r="C87" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>133</v>
+      <c r="A87" s="14"/>
+      <c r="C87" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="6"/>
+      <c r="B89" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2594,4 +3102,623 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="33.375" style="1" customWidth="1"/>
+    <col min="2" max="7" width="9.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="4" t="str">
+        <f>DEC2HEX(B38,8)</f>
+        <v>05562290</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>DEC2HEX(B38+8,8)</f>
+        <v>05562298</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f>DEC2HEX(B38+52,8)</f>
+        <v>055622C4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f>DEC2HEX(B40+4,8)</f>
+        <v>055622C8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f t="shared" ref="D5:D11" si="0">DEC2HEX(B41+4,8)</f>
+        <v>055622CC</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>055622D0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>055622D4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>055622D8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>055622DC</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>055622E0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f>DEC2HEX(B46+32,8)</f>
+        <v>055622FC</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f>DEC2HEX(B47+32,8)</f>
+        <v>05562300</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f>DEC2HEX(B38+200,8)</f>
+        <v>05562358</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f>DEC2HEX(B49+20,8)</f>
+        <v>0556236C</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f>DEC2HEX(B50+20,8)</f>
+        <v>05562380</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f>DEC2HEX(B51+20,8)</f>
+        <v>05562394</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" hidden="1" spans="1:3">
+      <c r="A17" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17">
+        <f>IF(A1=A18,B18,IF(A1=A19,B19,IF(A1=A20,B20,IF(A1=A21,B21,IF(A1=A22,B22,IF(A1=A23,B23,IF(A1=A24,B24,IF(A1=A25,B25,IF(A1=A26,B26,IF(A1=A27,B27,IF(A1=A28,B28,IF(A1=A29,B29,IF(A1=A30,B30,IF(A1=A31,B31,IF(A1=A32,B32,IF(A1=A33,B33,IF(A1=A34,B34,IF(A1=A35,B35))))))))))))))))))</f>
+        <v>336</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" ht="13.5" hidden="1" spans="1:3">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18">
+        <v>336</v>
+      </c>
+      <c r="C18"/>
+    </row>
+    <row r="19" ht="13.5" hidden="1" spans="1:5">
+      <c r="A19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19">
+        <v>672</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" ht="13.5" hidden="1" spans="1:5">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20">
+        <v>1008</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" ht="13.5" hidden="1" spans="1:5">
+      <c r="A21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21">
+        <v>1344</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" ht="13.5" hidden="1" spans="1:5">
+      <c r="A22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22">
+        <v>1680</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" ht="13.5" hidden="1" spans="1:5">
+      <c r="A23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23">
+        <v>2016</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" ht="13.5" hidden="1" spans="1:5">
+      <c r="A24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24">
+        <v>2352</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" ht="13.5" hidden="1" spans="1:5">
+      <c r="A25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25">
+        <v>2688</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" ht="13.5" hidden="1" spans="1:5">
+      <c r="A26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26">
+        <v>3024</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" ht="13.5" hidden="1" spans="1:5">
+      <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27">
+        <v>3360</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" ht="13.5" hidden="1" spans="1:5">
+      <c r="A28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28">
+        <v>3696</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" ht="13.5" hidden="1" spans="1:5">
+      <c r="A29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29">
+        <v>4032</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" ht="13.5" hidden="1" spans="1:5">
+      <c r="A30" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30">
+        <v>4368</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" ht="13.5" hidden="1" spans="1:5">
+      <c r="A31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31">
+        <v>4704</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" ht="13.5" hidden="1" spans="1:5">
+      <c r="A32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32">
+        <v>5040</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" ht="13.5" hidden="1" spans="1:5">
+      <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33">
+        <v>5376</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" ht="13.5" hidden="1" spans="1:5">
+      <c r="A34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34">
+        <v>5712</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" ht="13.5" hidden="1" spans="1:5">
+      <c r="A35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35">
+        <v>6048</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" hidden="1"/>
+    <row r="37" hidden="1" spans="1:2">
+      <c r="A37" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" hidden="1" spans="1:2">
+      <c r="A38" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="8">
+        <f>HEX2DEC(B37)+(B17)</f>
+        <v>89531024</v>
+      </c>
+    </row>
+    <row r="39" hidden="1" spans="1:2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" hidden="1" spans="1:2">
+      <c r="A40" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="8">
+        <f>HEX2DEC(D3)</f>
+        <v>89531076</v>
+      </c>
+    </row>
+    <row r="41" hidden="1" spans="1:2">
+      <c r="A41" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="8">
+        <f t="shared" ref="B41:B47" si="1">HEX2DEC(D4)</f>
+        <v>89531080</v>
+      </c>
+    </row>
+    <row r="42" hidden="1" spans="1:2">
+      <c r="A42" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="8">
+        <f t="shared" si="1"/>
+        <v>89531084</v>
+      </c>
+    </row>
+    <row r="43" hidden="1" spans="1:2">
+      <c r="A43" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="8">
+        <f t="shared" si="1"/>
+        <v>89531088</v>
+      </c>
+    </row>
+    <row r="44" hidden="1" spans="1:2">
+      <c r="A44" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="8">
+        <f t="shared" si="1"/>
+        <v>89531092</v>
+      </c>
+    </row>
+    <row r="45" hidden="1" spans="1:2">
+      <c r="A45" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="8">
+        <f t="shared" si="1"/>
+        <v>89531096</v>
+      </c>
+    </row>
+    <row r="46" hidden="1" spans="1:2">
+      <c r="A46" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" s="8">
+        <f t="shared" si="1"/>
+        <v>89531100</v>
+      </c>
+    </row>
+    <row r="47" hidden="1" spans="1:2">
+      <c r="A47" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" s="8">
+        <f t="shared" si="1"/>
+        <v>89531104</v>
+      </c>
+    </row>
+    <row r="48" hidden="1" spans="1:2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" hidden="1" spans="1:2">
+      <c r="A49" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" s="8">
+        <f>HEX2DEC(D13)</f>
+        <v>89531224</v>
+      </c>
+    </row>
+    <row r="50" hidden="1" spans="1:2">
+      <c r="A50" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" s="8">
+        <f>HEX2DEC(D14)</f>
+        <v>89531244</v>
+      </c>
+    </row>
+    <row r="51" hidden="1" spans="1:2">
+      <c r="A51" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" s="8">
+        <f>HEX2DEC(D15)</f>
+        <v>89531264</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A16"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+      <formula1>$A$18:$A$35</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/ポケモン不思議のダンジョン救助隊DX.xlsx
+++ b/ポケモン不思議のダンジョン救助隊DX.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
   <si>
     <t>Switch P5S自助DIY数据表 by 露易娘
 http://ruisan.blog.jp/
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>与HP位置+34</t>
+  </si>
+  <si>
+    <t>能力值为迷宫内加成最高500</t>
   </si>
   <si>
     <t>防御</t>
@@ -1099,10 +1102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1182,6 +1185,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1193,6 +1203,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1220,44 +1237,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1296,7 +1276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1310,8 +1290,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1320,6 +1309,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1340,7 +1343,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1376,79 +1433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,48 +1446,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1521,6 +1464,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1573,17 +1576,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1593,15 +1590,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1621,6 +1609,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1639,10 +1642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1651,137 +1654,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1836,6 +1839,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1847,6 +1853,9 @@
     </xf>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2199,7 +2208,7 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2240,861 +2249,877 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="14" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="C6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="14"/>
+      <c r="C7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="14"/>
+      <c r="C8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="14"/>
+      <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:7">
+      <c r="A10" s="14"/>
       <c r="C10" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="14"/>
       <c r="C11" s="10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="14"/>
-      <c r="C12" s="13" t="s">
-        <v>10</v>
+      <c r="C12" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="14"/>
       <c r="C13" s="10" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>14</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="14"/>
       <c r="C14" s="10" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="14"/>
       <c r="C15" s="10" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="14"/>
       <c r="C16" s="10" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="14"/>
       <c r="C17" s="10" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="14"/>
       <c r="C18" s="10" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="14"/>
+      <c r="B19" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="C19" s="10" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="14"/>
       <c r="C20" s="10" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="14"/>
-      <c r="C21" s="10" t="s">
-        <v>38</v>
+      <c r="C21" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="14"/>
       <c r="C22" s="10" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="14"/>
-      <c r="B23" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="C23" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="14"/>
       <c r="C24" s="10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="14"/>
-      <c r="C25" s="13" t="s">
-        <v>10</v>
+      <c r="C25" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="14"/>
       <c r="C26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>46</v>
+        <v>26</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="14"/>
       <c r="C27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="14"/>
       <c r="C28" s="10" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="14"/>
       <c r="C29" s="10" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="14"/>
       <c r="C30" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>39</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="14"/>
       <c r="C31" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="14"/>
+      <c r="B32" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="C32" s="10" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="14"/>
       <c r="C33" s="10" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="14"/>
-      <c r="C34" s="10" t="s">
-        <v>38</v>
+      <c r="C34" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="14"/>
       <c r="C35" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="14"/>
-      <c r="B36" s="10" t="s">
-        <v>61</v>
-      </c>
       <c r="C36" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>67</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="14"/>
       <c r="C37" s="10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>69</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="14"/>
-      <c r="C38" s="13" t="s">
-        <v>10</v>
+      <c r="C38" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>71</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="14"/>
       <c r="C39" s="10" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>65</v>
+        <v>73</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="14"/>
       <c r="C40" s="10" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="14"/>
       <c r="C41" s="10" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="14"/>
       <c r="C42" s="10" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="14"/>
       <c r="C43" s="10" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="14"/>
       <c r="C44" s="10" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="14"/>
+      <c r="A45" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="C45" s="10" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="14"/>
       <c r="C46" s="10" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="14"/>
-      <c r="C47" s="10" t="s">
-        <v>38</v>
+      <c r="C47" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="14"/>
       <c r="C48" s="10" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>4</v>
-      </c>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="14"/>
       <c r="C49" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>86</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="14"/>
       <c r="C50" s="10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>88</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="14"/>
-      <c r="C51" s="13" t="s">
-        <v>10</v>
+      <c r="C51" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>90</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="14"/>
       <c r="C52" s="10" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>84</v>
+        <v>92</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="14"/>
       <c r="C53" s="10" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="14"/>
       <c r="C54" s="10" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>88</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E54" s="19"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="14"/>
       <c r="C55" s="10" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>90</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E55" s="19"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="14"/>
       <c r="C56" s="10" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>92</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E56" s="19"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="14"/>
       <c r="C57" s="10" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>99</v>
+      </c>
+      <c r="E57" s="19"/>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="14"/>
+      <c r="B58" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="C58" s="10" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E58" s="18"/>
-    </row>
-    <row r="59" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="14"/>
       <c r="C59" s="10" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E59" s="18"/>
-    </row>
-    <row r="60" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="14"/>
-      <c r="C60" s="10" t="s">
-        <v>38</v>
+      <c r="C60" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" s="18"/>
-    </row>
-    <row r="61" spans="1:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="14"/>
       <c r="C61" s="10" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E61" s="18"/>
-    </row>
-    <row r="62" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="14"/>
-      <c r="B62" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="C62" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>104</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="14"/>
       <c r="C63" s="10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>106</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="14"/>
-      <c r="C64" s="13" t="s">
-        <v>10</v>
+      <c r="C64" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>108</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="14"/>
       <c r="C65" s="10" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>102</v>
+        <v>110</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="14"/>
       <c r="C66" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="14"/>
       <c r="C67" s="10" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="14"/>
       <c r="C68" s="10" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="14"/>
       <c r="C69" s="10" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="14"/>
       <c r="C70" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>112</v>
+        <v>41</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="14"/>
+      <c r="B71" s="23" t="s">
+        <v>62</v>
+      </c>
       <c r="C71" s="10" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="14"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="10" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="14"/>
-      <c r="C73" s="10" t="s">
-        <v>38</v>
+      <c r="B73" s="23"/>
+      <c r="C73" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="14"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D74" s="21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="14"/>
-      <c r="B75" s="10" t="s">
-        <v>61</v>
-      </c>
+      <c r="B75" s="23"/>
       <c r="C75" s="10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>122</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="14"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>124</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="14"/>
-      <c r="C77" s="13" t="s">
-        <v>10</v>
+      <c r="B77" s="23"/>
+      <c r="C77" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>126</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="14"/>
+      <c r="B78" s="23"/>
       <c r="C78" s="10" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>120</v>
+        <v>128</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="14"/>
+      <c r="B79" s="23"/>
       <c r="C79" s="10" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="14"/>
+      <c r="B80" s="23"/>
       <c r="C80" s="10" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="14"/>
+      <c r="B81" s="23"/>
       <c r="C81" s="10" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="14"/>
+      <c r="B82" s="23"/>
       <c r="C82" s="10" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="14"/>
+      <c r="B83" s="23"/>
       <c r="C83" s="10" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="14"/>
-      <c r="C84" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="14"/>
-      <c r="C85" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="14"/>
-      <c r="C86" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="14"/>
-      <c r="C87" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="13"/>
     </row>
   </sheetData>
+  <sheetProtection password="CE2A" sheet="1" objects="1"/>
   <mergeCells count="10">
-    <mergeCell ref="A10:A48"/>
-    <mergeCell ref="A49:A87"/>
-    <mergeCell ref="B10:B22"/>
-    <mergeCell ref="B23:B35"/>
-    <mergeCell ref="B36:B48"/>
-    <mergeCell ref="B49:B61"/>
-    <mergeCell ref="B62:B74"/>
-    <mergeCell ref="B75:B87"/>
+    <mergeCell ref="A6:A44"/>
+    <mergeCell ref="A45:A83"/>
+    <mergeCell ref="B6:B18"/>
+    <mergeCell ref="B19:B31"/>
+    <mergeCell ref="B32:B44"/>
+    <mergeCell ref="B45:B57"/>
+    <mergeCell ref="B58:B70"/>
+    <mergeCell ref="B71:B83"/>
     <mergeCell ref="A1:D3"/>
     <mergeCell ref="E1:H3"/>
   </mergeCells>
@@ -3107,13 +3132,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="33.375" style="1" customWidth="1"/>
     <col min="2" max="7" width="9.375" style="1" customWidth="1"/>
@@ -3122,265 +3147,266 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D1" s="4" t="str">
         <f>DEC2HEX(B38,8)</f>
         <v>05562290</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D2" s="4" t="str">
         <f>DEC2HEX(B38+8,8)</f>
         <v>05562298</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D3" s="4" t="str">
         <f>DEC2HEX(B38+52,8)</f>
         <v>055622C4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>141</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="F3"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>DEC2HEX(B40+4,8)</f>
         <v>055622C8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D11" si="0">DEC2HEX(B41+4,8)</f>
         <v>055622CC</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>055622D0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>055622D4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>055622D8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>055622DC</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>055622E0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D11" s="4" t="str">
         <f>DEC2HEX(B46+32,8)</f>
         <v>055622FC</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D12" s="4" t="str">
         <f>DEC2HEX(B47+32,8)</f>
         <v>05562300</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D13" s="4" t="str">
         <f>DEC2HEX(B38+200,8)</f>
         <v>05562358</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D14" s="4" t="str">
         <f>DEC2HEX(B49+20,8)</f>
         <v>0556236C</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D15" s="4" t="str">
         <f>DEC2HEX(B50+20,8)</f>
         <v>05562380</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D16" s="4" t="str">
         <f>DEC2HEX(B51+20,8)</f>
         <v>05562394</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" hidden="1" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B17">
         <f>IF(A1=A18,B18,IF(A1=A19,B19,IF(A1=A20,B20,IF(A1=A21,B21,IF(A1=A22,B22,IF(A1=A23,B23,IF(A1=A24,B24,IF(A1=A25,B25,IF(A1=A26,B26,IF(A1=A27,B27,IF(A1=A28,B28,IF(A1=A29,B29,IF(A1=A30,B30,IF(A1=A31,B31,IF(A1=A32,B32,IF(A1=A33,B33,IF(A1=A34,B34,IF(A1=A35,B35))))))))))))))))))</f>
@@ -3390,7 +3416,7 @@
     </row>
     <row r="18" ht="13.5" hidden="1" spans="1:3">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B18">
         <v>336</v>
@@ -3399,7 +3425,7 @@
     </row>
     <row r="19" ht="13.5" hidden="1" spans="1:5">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B19">
         <v>672</v>
@@ -3410,7 +3436,7 @@
     </row>
     <row r="20" ht="13.5" hidden="1" spans="1:5">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B20">
         <v>1008</v>
@@ -3421,7 +3447,7 @@
     </row>
     <row r="21" ht="13.5" hidden="1" spans="1:5">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B21">
         <v>1344</v>
@@ -3432,7 +3458,7 @@
     </row>
     <row r="22" ht="13.5" hidden="1" spans="1:5">
       <c r="A22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B22">
         <v>1680</v>
@@ -3443,7 +3469,7 @@
     </row>
     <row r="23" ht="13.5" hidden="1" spans="1:5">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B23">
         <v>2016</v>
@@ -3454,7 +3480,7 @@
     </row>
     <row r="24" ht="13.5" hidden="1" spans="1:5">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B24">
         <v>2352</v>
@@ -3465,7 +3491,7 @@
     </row>
     <row r="25" ht="13.5" hidden="1" spans="1:5">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B25">
         <v>2688</v>
@@ -3476,7 +3502,7 @@
     </row>
     <row r="26" ht="13.5" hidden="1" spans="1:5">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B26">
         <v>3024</v>
@@ -3487,7 +3513,7 @@
     </row>
     <row r="27" ht="13.5" hidden="1" spans="1:5">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B27">
         <v>3360</v>
@@ -3498,7 +3524,7 @@
     </row>
     <row r="28" ht="13.5" hidden="1" spans="1:5">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B28">
         <v>3696</v>
@@ -3509,7 +3535,7 @@
     </row>
     <row r="29" ht="13.5" hidden="1" spans="1:5">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B29">
         <v>4032</v>
@@ -3520,7 +3546,7 @@
     </row>
     <row r="30" ht="13.5" hidden="1" spans="1:5">
       <c r="A30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B30">
         <v>4368</v>
@@ -3531,7 +3557,7 @@
     </row>
     <row r="31" ht="13.5" hidden="1" spans="1:5">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B31">
         <v>4704</v>
@@ -3542,7 +3568,7 @@
     </row>
     <row r="32" ht="13.5" hidden="1" spans="1:5">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B32">
         <v>5040</v>
@@ -3553,7 +3579,7 @@
     </row>
     <row r="33" ht="13.5" hidden="1" spans="1:5">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B33">
         <v>5376</v>
@@ -3564,7 +3590,7 @@
     </row>
     <row r="34" ht="13.5" hidden="1" spans="1:5">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B34">
         <v>5712</v>
@@ -3575,7 +3601,7 @@
     </row>
     <row r="35" ht="13.5" hidden="1" spans="1:5">
       <c r="A35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B35">
         <v>6048</v>
@@ -3587,15 +3613,15 @@
     <row r="36" hidden="1"/>
     <row r="37" hidden="1" spans="1:2">
       <c r="A37" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" hidden="1" spans="1:2">
       <c r="A38" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B38" s="8">
         <f>HEX2DEC(B37)+(B17)</f>
@@ -3608,7 +3634,7 @@
     </row>
     <row r="40" hidden="1" spans="1:2">
       <c r="A40" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B40" s="8">
         <f>HEX2DEC(D3)</f>
@@ -3617,7 +3643,7 @@
     </row>
     <row r="41" hidden="1" spans="1:2">
       <c r="A41" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B41" s="8">
         <f t="shared" ref="B41:B47" si="1">HEX2DEC(D4)</f>
@@ -3626,7 +3652,7 @@
     </row>
     <row r="42" hidden="1" spans="1:2">
       <c r="A42" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B42" s="8">
         <f t="shared" si="1"/>
@@ -3635,7 +3661,7 @@
     </row>
     <row r="43" hidden="1" spans="1:2">
       <c r="A43" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B43" s="8">
         <f t="shared" si="1"/>
@@ -3644,7 +3670,7 @@
     </row>
     <row r="44" hidden="1" spans="1:2">
       <c r="A44" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B44" s="8">
         <f t="shared" si="1"/>
@@ -3653,7 +3679,7 @@
     </row>
     <row r="45" hidden="1" spans="1:2">
       <c r="A45" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B45" s="8">
         <f t="shared" si="1"/>
@@ -3662,7 +3688,7 @@
     </row>
     <row r="46" hidden="1" spans="1:2">
       <c r="A46" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B46" s="8">
         <f t="shared" si="1"/>
@@ -3671,7 +3697,7 @@
     </row>
     <row r="47" hidden="1" spans="1:2">
       <c r="A47" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B47" s="8">
         <f t="shared" si="1"/>
@@ -3684,7 +3710,7 @@
     </row>
     <row r="49" hidden="1" spans="1:2">
       <c r="A49" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B49" s="8">
         <f>HEX2DEC(D13)</f>
@@ -3693,7 +3719,7 @@
     </row>
     <row r="50" hidden="1" spans="1:2">
       <c r="A50" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B50" s="8">
         <f>HEX2DEC(D14)</f>
@@ -3702,7 +3728,7 @@
     </row>
     <row r="51" hidden="1" spans="1:2">
       <c r="A51" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B51" s="8">
         <f>HEX2DEC(D15)</f>
@@ -3710,11 +3736,15 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="CE2A" sheet="1" objects="1"/>
+  <protectedRanges>
+    <protectedRange sqref="A1" name="区域1" securityDescriptor="O:WDG:WDD:"/>
+  </protectedRanges>
   <mergeCells count="1">
     <mergeCell ref="A1:A16"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+    <dataValidation type="list" allowBlank="1" sqref="A1:A16">
       <formula1>$A$18:$A$35</formula1>
     </dataValidation>
   </dataValidations>

--- a/ポケモン不思議のダンジョン救助隊DX.xlsx
+++ b/ポケモン不思議のダンジョン救助隊DX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19050" windowHeight="17580"/>
+    <workbookView windowWidth="19050" windowHeight="17580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
   <si>
     <t>Switch P5S自助DIY数据表 by 露易娘
 http://ruisan.blog.jp/
@@ -42,32 +42,60 @@
     <t>MAIN+0x05562290</t>
   </si>
   <si>
+    <t>角色间隔+150</t>
+  </si>
+  <si>
+    <t>HP上限</t>
+  </si>
+  <si>
+    <t>MAIN+0x05562294</t>
+  </si>
+  <si>
+    <t>饥饿感</t>
+  </si>
+  <si>
+    <t>MAIN+0x05562298</t>
+  </si>
+  <si>
+    <t>4E20为满</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>MAIN+0x055622A0</t>
+  </si>
+  <si>
+    <t>攻击(迷宫BUFF)</t>
+  </si>
+  <si>
+    <t>MAIN+0x055622C4</t>
+  </si>
+  <si>
+    <t>与HP位置+34</t>
+  </si>
+  <si>
+    <r>
+      <t>能力</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>角色间隔</t>
+      <t>值为</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="MS Gothic"/>
         <charset val="134"/>
       </rPr>
-      <t>+150</t>
-    </r>
-  </si>
-  <si>
-    <t>HP上限</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562294</t>
-  </si>
-  <si>
+      <t>迷</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -75,11 +103,248 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>宫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内BUFF最高500</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>攻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>MAIN+0x055622C8</t>
+  </si>
+  <si>
+    <t>此功能为迷宫后生效</t>
+  </si>
+  <si>
+    <t>防御(迷宫BUFF)</t>
+  </si>
+  <si>
+    <t>MAIN+0x055622CC</t>
+  </si>
+  <si>
+    <r>
+      <t>防御（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>MAIN+0x055622D0</t>
+  </si>
+  <si>
+    <t>特攻(迷宫BUFF)</t>
+  </si>
+  <si>
+    <t>MAIN+0x055622D4</t>
+  </si>
+  <si>
+    <r>
+      <t>特攻（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>MAIN+0x055622D8</t>
+  </si>
+  <si>
+    <t>特防(迷宫BUFF)</t>
+  </si>
+  <si>
+    <t>MAIN+0x055622DC</t>
+  </si>
+  <si>
+    <r>
+      <t>特防（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>MAIN+0x055622E0</t>
+  </si>
+  <si>
+    <t>速度(迷宫BUFF)</t>
+  </si>
+  <si>
+    <t>MAIN+0x055622FC</t>
+  </si>
+  <si>
+    <t>与特防位置+20</t>
+  </si>
+  <si>
+    <r>
+      <t>速度（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>MAIN+0x05562300</t>
+  </si>
+  <si>
+    <t>A键PP</t>
+  </si>
+  <si>
+    <t>MAIN+0x05562358</t>
+  </si>
+  <si>
+    <t>技能之间 间隔+14</t>
+  </si>
+  <si>
+    <t>与HP位置+C8</t>
+  </si>
+  <si>
+    <t>B键PP</t>
+  </si>
+  <si>
+    <t>MAIN+0x0556236C</t>
+  </si>
+  <si>
+    <t>X键PP</t>
+  </si>
+  <si>
+    <t>MAIN+0x05562380</t>
+  </si>
+  <si>
+    <t>Y键PP</t>
+  </si>
+  <si>
+    <t>MAIN+0x05562394</t>
+  </si>
+  <si>
+    <t>队伍一角色1</t>
+  </si>
+  <si>
+    <t>02000000</t>
+  </si>
+  <si>
+    <t>000003E7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>饥饿</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="MS Gothic"/>
         <charset val="134"/>
@@ -88,633 +353,71 @@
     </r>
   </si>
   <si>
-    <t>MAIN+0x05562298</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
+    <t>00004E20</t>
+  </si>
+  <si>
+    <r>
+      <t>攻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="MS Gothic"/>
         <charset val="134"/>
       </rPr>
-      <t>4E20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
+      <t>(BUFF)</t>
+    </r>
+  </si>
+  <si>
+    <t>000001F4</t>
+  </si>
+  <si>
+    <r>
+      <t>攻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>为满</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>等</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>级</t>
-    </r>
-  </si>
-  <si>
-    <t>MAIN+0x055622A0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>攻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>击</t>
     </r>
   </si>
   <si>
-    <t>MAIN+0x055622C4</t>
-  </si>
-  <si>
-    <t>MAIN+0x055622C8</t>
-  </si>
-  <si>
-    <t>与HP位置+34</t>
-  </si>
-  <si>
-    <t>能力值为迷宫内加成最高500</t>
+    <t>防御(BUFF)</t>
   </si>
   <si>
     <t>防御</t>
   </si>
   <si>
-    <t>MAIN+0x055622CC</t>
-  </si>
-  <si>
-    <t>MAIN+0x055622D0</t>
+    <t>特攻(BUFF)</t>
   </si>
   <si>
     <t>特攻</t>
   </si>
   <si>
-    <t>MAIN+0x055622D4</t>
-  </si>
-  <si>
-    <t>MAIN+0x055622D8</t>
+    <t>特防(BUFF)</t>
   </si>
   <si>
     <t>特防</t>
   </si>
   <si>
-    <t>MAIN+0x055622DC</t>
-  </si>
-  <si>
-    <t>MAIN+0x055622E0</t>
+    <t>速度(BUFF)</t>
   </si>
   <si>
     <t>速度</t>
-  </si>
-  <si>
-    <t>MAIN+0x055622FC</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562300</t>
-  </si>
-  <si>
-    <t>与特防位置+20</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>键</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PP</t>
-    </r>
-  </si>
-  <si>
-    <t>MAIN+0x05562358</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>技能之</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>隔+14</t>
-    </r>
-  </si>
-  <si>
-    <t>与HP位置+C8</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>键</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PP</t>
-    </r>
-  </si>
-  <si>
-    <t>MAIN+0x0556236C</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>键</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PP</t>
-    </r>
-  </si>
-  <si>
-    <t>MAIN+0x05562380</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>键</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PP</t>
-    </r>
-  </si>
-  <si>
-    <t>MAIN+0x05562394</t>
-  </si>
-  <si>
-    <t>角色二</t>
-  </si>
-  <si>
-    <t>MAIN+0x055623E0</t>
-  </si>
-  <si>
-    <t>MAIN+0x055623E4</t>
-  </si>
-  <si>
-    <t>MAIN+0x055623E8</t>
-  </si>
-  <si>
-    <t>MAIN+0x055623F0</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562414</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562418</t>
-  </si>
-  <si>
-    <t>MAIN+0x0556241C</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562420</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562424</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562428</t>
-  </si>
-  <si>
-    <t>MAIN+0x0556242C</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562430</t>
-  </si>
-  <si>
-    <t>MAIN+0x0556244C</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562450</t>
-  </si>
-  <si>
-    <t>MAIN+0x055624A8</t>
-  </si>
-  <si>
-    <t>MAIN+0x055624BC</t>
-  </si>
-  <si>
-    <t>MAIN+0x055624D0</t>
-  </si>
-  <si>
-    <t>MAIN+0x055624E4</t>
-  </si>
-  <si>
-    <t>角色三</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562530</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562534</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562538</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562540</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562574</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562578</t>
-  </si>
-  <si>
-    <t>MAIN+0x0556257C</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562580</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562584</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562588</t>
-  </si>
-  <si>
-    <t>MAIN+0x0556258C</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562590</t>
-  </si>
-  <si>
-    <t>MAIN+0x055625AC</t>
-  </si>
-  <si>
-    <t>MAIN+0x055625B0</t>
-  </si>
-  <si>
-    <t>MAIN+0x055625F8</t>
-  </si>
-  <si>
-    <t>MAIN+0x0556260C</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562620</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562634</t>
-  </si>
-  <si>
-    <t>No.2</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562680</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562684</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562688</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562690</t>
-  </si>
-  <si>
-    <t>MAIN+0x055626B4</t>
-  </si>
-  <si>
-    <t>MAIN+0x055626B8</t>
-  </si>
-  <si>
-    <t>MAIN+0x055626BC</t>
-  </si>
-  <si>
-    <t>MAIN+0x055626C0</t>
-  </si>
-  <si>
-    <t>MAIN+0x055626C4</t>
-  </si>
-  <si>
-    <t>MAIN+0x055626C8</t>
-  </si>
-  <si>
-    <t>MAIN+0x055626CC</t>
-  </si>
-  <si>
-    <t>MAIN+0x055626D0</t>
-  </si>
-  <si>
-    <t>MAIN+0x055626EC</t>
-  </si>
-  <si>
-    <t>MAIN+0x055626F0</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562748</t>
-  </si>
-  <si>
-    <t>MAIN+0x0556275C</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562770</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562784</t>
-  </si>
-  <si>
-    <t>MAIN+0x055627D0</t>
-  </si>
-  <si>
-    <t>MAIN+0x055627D4</t>
-  </si>
-  <si>
-    <t>MAIN+0x055627D8</t>
-  </si>
-  <si>
-    <t>MAIN+0x055627E0</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562804</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562808</t>
-  </si>
-  <si>
-    <t>MAIN+0x0556280C</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562810</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562814</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562818</t>
-  </si>
-  <si>
-    <t>MAIN+0x0556281C</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562820</t>
-  </si>
-  <si>
-    <t>MAIN+0x0556283C</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562840</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562898</t>
-  </si>
-  <si>
-    <t>MAIN+0x055628AC</t>
-  </si>
-  <si>
-    <t>MAIN+0x055628C0</t>
-  </si>
-  <si>
-    <t>MAIN+0x055628D4</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562920</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562924</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562928</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562930</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562954</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562958</t>
-  </si>
-  <si>
-    <t>MAIN+0x0556295C</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562960</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562964</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562968</t>
-  </si>
-  <si>
-    <t>MAIN+0x0556296C</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562970</t>
-  </si>
-  <si>
-    <t>MAIN+0x0556298C</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562990</t>
-  </si>
-  <si>
-    <t>MAIN+0x055629E8</t>
-  </si>
-  <si>
-    <t>MAIN+0x055629FC</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562A10</t>
-  </si>
-  <si>
-    <t>MAIN+0x05562A24</t>
-  </si>
-  <si>
-    <t>队伍一角色1</t>
-  </si>
-  <si>
-    <t>02000000</t>
-  </si>
-  <si>
-    <t>000003E7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>饥饿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>感</t>
-    </r>
-  </si>
-  <si>
-    <t>00004E20</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>攻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>击</t>
-    </r>
-  </si>
-  <si>
-    <t>000001F4</t>
   </si>
   <si>
     <r>
@@ -1104,10 +807,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1161,14 +864,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="MS Gothic"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1179,16 +876,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="MS Gothic"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1203,13 +893,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1237,7 +920,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1276,7 +996,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1290,17 +1010,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1313,26 +1024,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1340,6 +1031,42 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1349,7 +1076,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,85 +1190,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1464,66 +1215,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1576,11 +1267,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1590,6 +1287,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1609,21 +1315,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1642,10 +1333,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1654,137 +1345,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1822,31 +1513,37 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1855,7 +1552,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2205,23 +1905,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="7" style="10" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="10" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="5.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="30.125" style="10" customWidth="1"/>
     <col min="7" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2231,29 +1932,43 @@
       <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="13" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -2262,12 +1977,13 @@
       <c r="D6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -2276,19 +1992,21 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="14"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
@@ -2296,832 +2014,519 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="18" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="15"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="14"/>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="10" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="14"/>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="14"/>
-      <c r="C13" s="10" t="s">
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="15"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="10" t="s">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="15"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="14"/>
-      <c r="C14" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="10" t="s">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="17" t="s">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="15"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="14"/>
-      <c r="C15" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="10" t="s">
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="D18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="E18" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="14"/>
-      <c r="C16" s="10" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="15"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="14"/>
-      <c r="C17" s="10" t="s">
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="15"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="14"/>
-      <c r="C18" s="10" t="s">
+      <c r="E20" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="F20" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="14"/>
-      <c r="B19" s="10" t="s">
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="15"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="14"/>
-      <c r="C20" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="10" t="s">
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="14"/>
-      <c r="C21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="14"/>
-      <c r="C22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="10" t="s">
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="15"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="10" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="14"/>
-      <c r="C23" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="14"/>
-      <c r="C24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>51</v>
-      </c>
+      <c r="A24" s="22"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="14"/>
-      <c r="C25" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>53</v>
-      </c>
+      <c r="A25" s="22"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="14"/>
-      <c r="C26" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>55</v>
-      </c>
+      <c r="A26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="14"/>
-      <c r="C27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="14"/>
-      <c r="C28" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="14"/>
-      <c r="C29" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="14"/>
-      <c r="C30" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>60</v>
-      </c>
+      <c r="A27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="22"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="22"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="22"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="14"/>
-      <c r="C31" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="14"/>
-      <c r="B32" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="14"/>
-      <c r="C33" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="14"/>
-      <c r="C34" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="14"/>
-      <c r="C35" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="14"/>
-      <c r="C36" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="14"/>
-      <c r="C37" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="14"/>
-      <c r="C38" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="14"/>
-      <c r="C39" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="14"/>
-      <c r="C40" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="14"/>
-      <c r="C41" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="14"/>
-      <c r="C42" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="14"/>
-      <c r="C43" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="14"/>
-      <c r="C44" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="14"/>
-      <c r="C46" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="14"/>
-      <c r="C47" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="14"/>
-      <c r="C48" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>85</v>
-      </c>
+      <c r="A31" s="22"/>
+      <c r="D31" s="24"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="22"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="22"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="22"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="22"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="22"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="22"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="22"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="22"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="22"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="22"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="22"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="22"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="22"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="22"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="22"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="22"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="22"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="14"/>
-      <c r="C49" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>87</v>
-      </c>
+      <c r="A49" s="22"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="14"/>
-      <c r="C50" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>89</v>
-      </c>
+      <c r="A50" s="22"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="14"/>
-      <c r="C51" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="A51" s="22"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="14"/>
-      <c r="C52" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="A52" s="22"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="14"/>
-      <c r="C53" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="A53" s="22"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="14"/>
-      <c r="C54" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="19"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="22"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="14"/>
-      <c r="C55" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E55" s="19"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="22"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="14"/>
-      <c r="C56" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" s="19"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="22"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="14"/>
-      <c r="C57" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E57" s="19"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="14"/>
-      <c r="B58" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="14"/>
-      <c r="C59" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="14"/>
-      <c r="C60" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="14"/>
-      <c r="C61" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="A57" s="22"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="22"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="22"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="22"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="22"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="22"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="14"/>
-      <c r="C62" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>105</v>
-      </c>
+      <c r="A62" s="22"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="14"/>
-      <c r="C63" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>107</v>
-      </c>
+      <c r="A63" s="22"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="14"/>
-      <c r="C64" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>109</v>
-      </c>
+      <c r="A64" s="22"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="14"/>
-      <c r="C65" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>111</v>
-      </c>
+      <c r="A65" s="22"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="14"/>
-      <c r="C66" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="14"/>
-      <c r="C67" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="14"/>
-      <c r="C68" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="14"/>
-      <c r="C69" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="14"/>
-      <c r="C70" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="14"/>
-      <c r="B71" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="14"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="14"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="14"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>121</v>
-      </c>
+      <c r="A66" s="22"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="22"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="22"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="22"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="22"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="25"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="14"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>123</v>
-      </c>
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="14"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>125</v>
-      </c>
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="14"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="14"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="A78" s="22"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="14"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="14"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="14"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="14"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="14"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="13"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="22"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
     </row>
   </sheetData>
-  <sheetProtection password="CE2A" sheet="1" objects="1"/>
-  <mergeCells count="10">
-    <mergeCell ref="A6:A44"/>
-    <mergeCell ref="A45:A83"/>
-    <mergeCell ref="B6:B18"/>
-    <mergeCell ref="B19:B31"/>
-    <mergeCell ref="B32:B44"/>
-    <mergeCell ref="B45:B57"/>
-    <mergeCell ref="B58:B70"/>
-    <mergeCell ref="B71:B83"/>
+  <mergeCells count="5">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:A23"/>
+    <mergeCell ref="B6:B23"/>
     <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:H3"/>
+    <mergeCell ref="E1:F3"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3134,279 +2539,280 @@
   <sheetPr/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="33.375" style="1" customWidth="1"/>
-    <col min="2" max="7" width="9.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
+    <col min="3" max="7" width="9.375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="D1" s="4" t="str">
         <f>DEC2HEX(B38,8)</f>
         <v>05562290</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2"/>
       <c r="B2" s="5" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="D2" s="4" t="str">
         <f>DEC2HEX(B38+8,8)</f>
         <v>05562298</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="str">
         <f>DEC2HEX(B38+52,8)</f>
         <v>055622C4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4" t="str">
         <f>DEC2HEX(B40+4,8)</f>
         <v>055622C8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" ref="D5:D11" si="0">DEC2HEX(B41+4,8)</f>
         <v>055622CC</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>055622D0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>055622D4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>055622D8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>055622DC</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>055622E0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="D11" s="4" t="str">
         <f>DEC2HEX(B46+32,8)</f>
         <v>055622FC</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="D12" s="4" t="str">
         <f>DEC2HEX(B47+32,8)</f>
         <v>05562300</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="D13" s="4" t="str">
         <f>DEC2HEX(B38+200,8)</f>
         <v>05562358</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="D14" s="4" t="str">
         <f>DEC2HEX(B49+20,8)</f>
         <v>0556236C</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="D15" s="4" t="str">
         <f>DEC2HEX(B50+20,8)</f>
         <v>05562380</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="D16" s="4" t="str">
         <f>DEC2HEX(B51+20,8)</f>
         <v>05562394</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" hidden="1" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="B17">
         <f>IF(A1=A18,B18,IF(A1=A19,B19,IF(A1=A20,B20,IF(A1=A21,B21,IF(A1=A22,B22,IF(A1=A23,B23,IF(A1=A24,B24,IF(A1=A25,B25,IF(A1=A26,B26,IF(A1=A27,B27,IF(A1=A28,B28,IF(A1=A29,B29,IF(A1=A30,B30,IF(A1=A31,B31,IF(A1=A32,B32,IF(A1=A33,B33,IF(A1=A34,B34,IF(A1=A35,B35))))))))))))))))))</f>
@@ -3416,7 +2822,7 @@
     </row>
     <row r="18" ht="13.5" hidden="1" spans="1:3">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>336</v>
@@ -3425,7 +2831,7 @@
     </row>
     <row r="19" ht="13.5" hidden="1" spans="1:5">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="B19">
         <v>672</v>
@@ -3436,7 +2842,7 @@
     </row>
     <row r="20" ht="13.5" hidden="1" spans="1:5">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <v>1008</v>
@@ -3447,7 +2853,7 @@
     </row>
     <row r="21" ht="13.5" hidden="1" spans="1:5">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="B21">
         <v>1344</v>
@@ -3458,7 +2864,7 @@
     </row>
     <row r="22" ht="13.5" hidden="1" spans="1:5">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="B22">
         <v>1680</v>
@@ -3469,7 +2875,7 @@
     </row>
     <row r="23" ht="13.5" hidden="1" spans="1:5">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="B23">
         <v>2016</v>
@@ -3480,7 +2886,7 @@
     </row>
     <row r="24" ht="13.5" hidden="1" spans="1:5">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="B24">
         <v>2352</v>
@@ -3491,7 +2897,7 @@
     </row>
     <row r="25" ht="13.5" hidden="1" spans="1:5">
       <c r="A25" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="B25">
         <v>2688</v>
@@ -3502,7 +2908,7 @@
     </row>
     <row r="26" ht="13.5" hidden="1" spans="1:5">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="B26">
         <v>3024</v>
@@ -3513,7 +2919,7 @@
     </row>
     <row r="27" ht="13.5" hidden="1" spans="1:5">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="B27">
         <v>3360</v>
@@ -3524,7 +2930,7 @@
     </row>
     <row r="28" ht="13.5" hidden="1" spans="1:5">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="B28">
         <v>3696</v>
@@ -3535,7 +2941,7 @@
     </row>
     <row r="29" ht="13.5" hidden="1" spans="1:5">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="B29">
         <v>4032</v>
@@ -3546,7 +2952,7 @@
     </row>
     <row r="30" ht="13.5" hidden="1" spans="1:5">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="B30">
         <v>4368</v>
@@ -3557,7 +2963,7 @@
     </row>
     <row r="31" ht="13.5" hidden="1" spans="1:5">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c r="B31">
         <v>4704</v>
@@ -3568,7 +2974,7 @@
     </row>
     <row r="32" ht="13.5" hidden="1" spans="1:5">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="B32">
         <v>5040</v>
@@ -3579,7 +2985,7 @@
     </row>
     <row r="33" ht="13.5" hidden="1" spans="1:5">
       <c r="A33" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="B33">
         <v>5376</v>
@@ -3590,7 +2996,7 @@
     </row>
     <row r="34" ht="13.5" hidden="1" spans="1:5">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="B34">
         <v>5712</v>
@@ -3601,7 +3007,7 @@
     </row>
     <row r="35" ht="13.5" hidden="1" spans="1:5">
       <c r="A35" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="B35">
         <v>6048</v>
@@ -3613,15 +3019,15 @@
     <row r="36" hidden="1"/>
     <row r="37" hidden="1" spans="1:2">
       <c r="A37" s="7" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>168</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" hidden="1" spans="1:2">
       <c r="A38" s="7" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="B38" s="8">
         <f>HEX2DEC(B37)+(B17)</f>
@@ -3634,7 +3040,7 @@
     </row>
     <row r="40" hidden="1" spans="1:2">
       <c r="A40" s="7" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="B40" s="8">
         <f>HEX2DEC(D3)</f>
@@ -3643,7 +3049,7 @@
     </row>
     <row r="41" hidden="1" spans="1:2">
       <c r="A41" s="7" t="s">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="B41" s="8">
         <f t="shared" ref="B41:B47" si="1">HEX2DEC(D4)</f>
@@ -3652,7 +3058,7 @@
     </row>
     <row r="42" hidden="1" spans="1:2">
       <c r="A42" s="7" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="B42" s="8">
         <f t="shared" si="1"/>
@@ -3661,7 +3067,7 @@
     </row>
     <row r="43" hidden="1" spans="1:2">
       <c r="A43" s="7" t="s">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c r="B43" s="8">
         <f t="shared" si="1"/>
@@ -3670,7 +3076,7 @@
     </row>
     <row r="44" hidden="1" spans="1:2">
       <c r="A44" s="7" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="B44" s="8">
         <f t="shared" si="1"/>
@@ -3679,7 +3085,7 @@
     </row>
     <row r="45" hidden="1" spans="1:2">
       <c r="A45" s="7" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="B45" s="8">
         <f t="shared" si="1"/>
@@ -3688,7 +3094,7 @@
     </row>
     <row r="46" hidden="1" spans="1:2">
       <c r="A46" s="7" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="B46" s="8">
         <f t="shared" si="1"/>
@@ -3697,7 +3103,7 @@
     </row>
     <row r="47" hidden="1" spans="1:2">
       <c r="A47" s="7" t="s">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="B47" s="8">
         <f t="shared" si="1"/>
@@ -3710,7 +3116,7 @@
     </row>
     <row r="49" hidden="1" spans="1:2">
       <c r="A49" s="7" t="s">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="B49" s="8">
         <f>HEX2DEC(D13)</f>
@@ -3719,7 +3125,7 @@
     </row>
     <row r="50" hidden="1" spans="1:2">
       <c r="A50" s="7" t="s">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="B50" s="8">
         <f>HEX2DEC(D14)</f>
@@ -3728,7 +3134,7 @@
     </row>
     <row r="51" hidden="1" spans="1:2">
       <c r="A51" s="7" t="s">
-        <v>176</v>
+        <v>98</v>
       </c>
       <c r="B51" s="8">
         <f>HEX2DEC(D15)</f>
@@ -3736,7 +3142,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CE2A" sheet="1" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A1" name="区域1" securityDescriptor="O:WDG:WDD:"/>
   </protectedRanges>

--- a/ポケモン不思議のダンジョン救助隊DX.xlsx
+++ b/ポケモン不思議のダンジョン救助隊DX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19050" windowHeight="17580" activeTab="1"/>
+    <workbookView windowWidth="19050" windowHeight="17580"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
@@ -1907,8 +1907,8 @@
   <sheetPr/>
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2539,8 +2539,8 @@
   <sheetPr/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/ポケモン不思議のダンジョン救助隊DX.xlsx
+++ b/ポケモン不思議のダンジョン救助隊DX.xlsx
@@ -76,6 +76,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>能力</t>
     </r>
     <r>
@@ -117,6 +123,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>攻</t>
     </r>
     <r>
@@ -170,6 +182,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>防御（</t>
     </r>
     <r>
@@ -202,6 +220,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>特攻（</t>
     </r>
     <r>
@@ -234,6 +258,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>特防（</t>
     </r>
     <r>
@@ -269,6 +299,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>速度（</t>
     </r>
     <r>
@@ -357,6 +393,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>攻</t>
     </r>
     <r>
@@ -383,6 +425,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>攻</t>
     </r>
     <r>
@@ -1475,7 +1523,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1521,9 +1569,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1549,9 +1594,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1965,7 +2007,7 @@
       <c r="D4" s="14"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -1977,12 +2019,12 @@
       <c r="D6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="15"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="10" t="s">
         <v>8</v>
@@ -1992,7 +2034,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="15"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="10" t="s">
         <v>10</v>
@@ -2000,12 +2042,12 @@
       <c r="D8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="15"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="10" t="s">
         <v>13</v>
@@ -2015,7 +2057,7 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="15"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="10" t="s">
         <v>15</v>
@@ -2023,15 +2065,15 @@
       <c r="D10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="10" t="s">
         <v>19</v>
@@ -2039,12 +2081,12 @@
       <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="15"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="10" t="s">
         <v>22</v>
@@ -2052,10 +2094,10 @@
       <c r="D12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="15"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="10" t="s">
         <v>24</v>
@@ -2063,10 +2105,10 @@
       <c r="D13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="21"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="10" t="s">
         <v>26</v>
@@ -2076,7 +2118,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="15"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="10" t="s">
         <v>28</v>
@@ -2086,7 +2128,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="15"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="10" t="s">
         <v>30</v>
@@ -2096,7 +2138,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="15"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="10" t="s">
         <v>32</v>
@@ -2106,7 +2148,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="15"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="10" t="s">
         <v>34</v>
@@ -2114,12 +2156,12 @@
       <c r="D18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="15"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="10" t="s">
         <v>37</v>
@@ -2129,7 +2171,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="15"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="10" t="s">
         <v>39</v>
@@ -2137,15 +2179,15 @@
       <c r="D20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="15"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="10" t="s">
         <v>43</v>
@@ -2153,10 +2195,10 @@
       <c r="D21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="21"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="15"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="10" t="s">
         <v>45</v>
@@ -2164,10 +2206,10 @@
       <c r="D22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="21"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="15"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="10" t="s">
         <v>47</v>
@@ -2175,352 +2217,353 @@
       <c r="D23" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="21"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="22"/>
-      <c r="E24" s="23"/>
+      <c r="A24" s="21"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="22"/>
-      <c r="E25" s="23"/>
+      <c r="A25" s="21"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+      <c r="A26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
+      <c r="A27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="22"/>
+      <c r="A28" s="21"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="22"/>
+      <c r="A29" s="21"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="22"/>
+      <c r="A30" s="21"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="22"/>
-      <c r="D31" s="24"/>
+      <c r="A31" s="21"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="22"/>
+      <c r="A32" s="21"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="22"/>
+      <c r="A33" s="21"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="22"/>
+      <c r="A34" s="21"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="22"/>
+      <c r="A35" s="21"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="22"/>
+      <c r="A36" s="21"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="22"/>
+      <c r="A37" s="21"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="22"/>
+      <c r="A38" s="21"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="22"/>
+      <c r="A39" s="21"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="22"/>
+      <c r="A40" s="21"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="22"/>
+      <c r="A41" s="21"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="22"/>
+      <c r="A42" s="21"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="22"/>
+      <c r="A43" s="21"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="22"/>
+      <c r="A44" s="21"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="22"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="22"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="22"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="22"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="22"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="22"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="22"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="22"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="22"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="22"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="22"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="22"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="22"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="22"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="22"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="22"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="22"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="22"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="22"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="22"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="22"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="22"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="22"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="22"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="22"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="22"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="22"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="22"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="22"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="22"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="25"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="21"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="22"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="22"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="22"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="22"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="22"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="22"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="22"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
     </row>
   </sheetData>
+  <sheetProtection password="CE2A" sheet="1" objects="1"/>
   <mergeCells count="5">
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A6:A23"/>
@@ -3142,6 +3185,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="CE2A" sheet="1" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="A1" name="区域1" securityDescriptor="O:WDG:WDD:"/>
   </protectedRanges>

--- a/ポケモン不思議のダンジョン救助隊DX.xlsx
+++ b/ポケモン不思議のダンジョン救助隊DX.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23130" windowHeight="17865" tabRatio="820"/>
+    <workbookView windowWidth="21375" windowHeight="18045" tabRatio="820"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
     <sheet name="公式换算全新界面" sheetId="8" r:id="rId2"/>
     <sheet name="属性偏移数" sheetId="9" state="hidden" r:id="rId3"/>
     <sheet name="下拉范围" sheetId="10" state="hidden" r:id="rId4"/>
-    <sheet name="公式换算" sheetId="2" r:id="rId5"/>
+    <sheet name="公式换算" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
   <si>
     <t>Switch P5S自助DIY数据表 by 露易娘
 http://ruisan.blog.jp/
@@ -30,7 +30,69 @@
 BID：9dda1efeef70de46</t>
   </si>
   <si>
-    <t>感谢浅汐协助完成算法</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浅汐&amp;AVZ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>协</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>助完成功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目</t>
+    </r>
   </si>
   <si>
     <t>No.1</t>
@@ -45,7 +107,33 @@
     <t>MAIN+0x05562290</t>
   </si>
   <si>
-    <t>角色间隔+150</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隔+150</t>
+    </r>
   </si>
   <si>
     <t>HP上限</t>
@@ -54,22 +142,117 @@
     <t>MAIN+0x05562294</t>
   </si>
   <si>
-    <t>饥饿感</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饥饿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感</t>
+    </r>
   </si>
   <si>
     <t>MAIN+0x05562298</t>
   </si>
   <si>
-    <t>4E20为满</t>
-  </si>
-  <si>
-    <t>等级</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4E20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为满</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级</t>
+    </r>
   </si>
   <si>
     <t>MAIN+0x055622A0</t>
   </si>
   <si>
-    <t>攻击(迷宫BUFF)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(迷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BUFF)</t>
+    </r>
   </si>
   <si>
     <t>MAIN+0x055622C4</t>
@@ -175,10 +358,80 @@
     <t>MAIN+0x055622C8</t>
   </si>
   <si>
-    <t>此功能为迷宫后生效</t>
-  </si>
-  <si>
-    <t>防御(迷宫BUFF)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>此功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>迷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后生效</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>防御(迷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BUFF)</t>
+    </r>
   </si>
   <si>
     <t>MAIN+0x055622CC</t>
@@ -216,7 +469,33 @@
     <t>MAIN+0x055622D0</t>
   </si>
   <si>
-    <t>特攻(迷宫BUFF)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特攻(迷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BUFF)</t>
+    </r>
   </si>
   <si>
     <t>MAIN+0x055622D4</t>
@@ -254,7 +533,33 @@
     <t>MAIN+0x055622D8</t>
   </si>
   <si>
-    <t>特防(迷宫BUFF)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特防(迷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BUFF)</t>
+    </r>
   </si>
   <si>
     <t>MAIN+0x055622DC</t>
@@ -292,7 +597,33 @@
     <t>MAIN+0x055622E0</t>
   </si>
   <si>
-    <t>速度(迷宫BUFF)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>速度(迷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BUFF)</t>
+    </r>
   </si>
   <si>
     <t>MAIN+0x055622FC</t>
@@ -333,31 +664,179 @@
     <t>MAIN+0x05562300</t>
   </si>
   <si>
-    <t>A键PP</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PP</t>
+    </r>
   </si>
   <si>
     <t>MAIN+0x05562358</t>
   </si>
   <si>
-    <t>技能之间 间隔+14</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技能之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隔+14</t>
+    </r>
   </si>
   <si>
     <t>与HP位置+C8</t>
   </si>
   <si>
-    <t>B键PP</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PP</t>
+    </r>
   </si>
   <si>
     <t>MAIN+0x0556236C</t>
   </si>
   <si>
-    <t>X键PP</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PP</t>
+    </r>
   </si>
   <si>
     <t>MAIN+0x05562380</t>
   </si>
   <si>
-    <t>Y键PP</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PP</t>
+    </r>
   </si>
   <si>
     <t>MAIN+0x05562394</t>
@@ -366,31 +845,535 @@
     <t>队伍一角色1</t>
   </si>
   <si>
-    <t>攻击(实际)</t>
-  </si>
-  <si>
-    <t>防御(实际)</t>
-  </si>
-  <si>
-    <t>特攻(实际)</t>
-  </si>
-  <si>
-    <t>特防(实际)</t>
-  </si>
-  <si>
-    <t>速度(实际)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饥饿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>攻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(迷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>宫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>BUFF)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>攻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>实际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>防御(迷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>宫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>BUFF)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>防御(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>实际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>特攻(迷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>宫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>BUFF)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>特攻(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>实际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>特防(迷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>宫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>BUFF)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>特防(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>实际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>速度(迷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>宫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>BUFF)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>速度(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>实际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>PP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>PP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>PP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>PP</t>
+    </r>
   </si>
   <si>
     <t>参数</t>
   </si>
   <si>
-    <t>位移值</t>
-  </si>
-  <si>
-    <t>前置代码</t>
-  </si>
-  <si>
-    <t>后置代码</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位移</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前置代</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后置代</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>码</t>
+    </r>
   </si>
   <si>
     <t>02000000</t>
@@ -401,7 +1384,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -410,7 +1393,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="MS Gothic"/>
         <charset val="128"/>
@@ -424,7 +1407,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="MS Gothic"/>
         <charset val="128"/>
@@ -433,12 +1416,39 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>击(迷宫BUFF)</t>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(迷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BUFF)</t>
     </r>
   </si>
   <si>
@@ -447,7 +1457,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="MS Gothic"/>
         <charset val="128"/>
@@ -456,18 +1466,45 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>击(实际)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="MS Gothic"/>
         <charset val="128"/>
@@ -476,18 +1513,36 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(迷宫BUFF)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(迷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BUFF)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="MS Gothic"/>
         <charset val="128"/>
@@ -496,18 +1551,36 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(实际)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="MS Gothic"/>
         <charset val="128"/>
@@ -516,18 +1589,36 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(迷宫BUFF)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(迷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BUFF)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="MS Gothic"/>
         <charset val="128"/>
@@ -536,18 +1627,36 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(实际)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="MS Gothic"/>
         <charset val="128"/>
@@ -556,18 +1665,36 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(迷宫BUFF)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(迷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BUFF)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="MS Gothic"/>
         <charset val="128"/>
@@ -576,18 +1703,36 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(实际)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="MS Gothic"/>
         <charset val="128"/>
@@ -596,18 +1741,36 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(迷宫BUFF)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(迷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>BUFF)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="MS Gothic"/>
         <charset val="128"/>
@@ -616,18 +1779,36 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(实际)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="MS Gothic"/>
         <charset val="128"/>
@@ -636,7 +1817,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -645,7 +1826,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="MS Gothic"/>
         <charset val="128"/>
@@ -662,7 +1843,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="MS Gothic"/>
         <charset val="128"/>
@@ -671,7 +1852,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -680,7 +1861,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="MS Gothic"/>
         <charset val="128"/>
@@ -691,7 +1872,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="MS Gothic"/>
         <charset val="128"/>
@@ -700,7 +1881,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -709,7 +1890,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="MS Gothic"/>
         <charset val="128"/>
@@ -720,7 +1901,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="MS Gothic"/>
         <charset val="128"/>
@@ -729,7 +1910,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -738,7 +1919,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="0"/>
         <rFont val="MS Gothic"/>
         <charset val="128"/>
@@ -747,15 +1928,52 @@
     </r>
   </si>
   <si>
-    <t>基础值</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍一角色1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>础值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
         <charset val="134"/>
       </rPr>
       <t>起始</t>
@@ -763,7 +1981,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="MS Gothic"/>
         <charset val="128"/>
@@ -773,19 +1991,86 @@
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进制（为减少偏移值量）</t>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少偏移</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>量）</t>
     </r>
   </si>
   <si>
     <t>05562140</t>
   </si>
   <si>
-    <t>队伍一角色2</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍一角色2</t>
+    </r>
   </si>
   <si>
     <t>倍率修正率</t>
@@ -794,17 +2079,47 @@
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>与偏移值合计</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与偏移</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="MS Gothic"/>
         <charset val="128"/>
@@ -814,81 +2129,363 @@
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进制结果</t>
-    </r>
-  </si>
-  <si>
-    <t>队伍一角色3</t>
-  </si>
-  <si>
-    <t>队伍二角色1</t>
-  </si>
-  <si>
-    <t>队伍二角色2</t>
-  </si>
-  <si>
-    <t>队伍二角色3</t>
-  </si>
-  <si>
-    <t>队伍三角色1</t>
-  </si>
-  <si>
-    <t>队伍三角色2</t>
-  </si>
-  <si>
-    <t>队伍三角色3</t>
-  </si>
-  <si>
-    <t>队伍四角色1</t>
-  </si>
-  <si>
-    <t>队伍四角色2</t>
-  </si>
-  <si>
-    <t>队伍四角色3</t>
-  </si>
-  <si>
-    <t>队伍五角色1</t>
-  </si>
-  <si>
-    <t>队伍五角色2</t>
-  </si>
-  <si>
-    <t>队伍五角色3</t>
-  </si>
-  <si>
-    <t>队伍六角色1</t>
-  </si>
-  <si>
-    <t>队伍六角色2</t>
-  </si>
-  <si>
-    <t>队伍六角色3</t>
-  </si>
-  <si>
-    <t>05562290</t>
-  </si>
-  <si>
-    <r>
-      <t>饥饿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>感</t>
-    </r>
-  </si>
-  <si>
-    <t>05562298</t>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>果</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍一角色3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍二角色1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍二角色2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍二角色3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍三角色1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍三角色2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍三角色3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍四角色1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍四角色2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍四角色3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍五角色1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍五角色2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍五角色3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍六角色1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍六角色2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍六角色3</t>
+    </r>
   </si>
   <si>
     <r>
@@ -909,219 +2506,20 @@
       </rPr>
       <t>击</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(BUFF)</t>
-    </r>
-  </si>
-  <si>
-    <t>055622C4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>攻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>击</t>
-    </r>
-  </si>
-  <si>
-    <t>055622C8</t>
-  </si>
-  <si>
-    <t>防御(BUFF)</t>
-  </si>
-  <si>
-    <t>055622CC</t>
   </si>
   <si>
     <t>防御</t>
   </si>
   <si>
-    <t>055622D0</t>
-  </si>
-  <si>
-    <t>特攻(BUFF)</t>
-  </si>
-  <si>
-    <t>055622D4</t>
-  </si>
-  <si>
     <t>特攻</t>
   </si>
   <si>
-    <t>055622D8</t>
-  </si>
-  <si>
-    <t>特防(BUFF)</t>
-  </si>
-  <si>
-    <t>055622DC</t>
-  </si>
-  <si>
     <t>特防</t>
   </si>
   <si>
-    <t>055622E0</t>
-  </si>
-  <si>
-    <t>速度(BUFF)</t>
-  </si>
-  <si>
-    <t>055622FC</t>
-  </si>
-  <si>
     <t>速度</t>
   </si>
   <si>
-    <t>05562300</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>键</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PP</t>
-    </r>
-  </si>
-  <si>
-    <t>05562358</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>键</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PP</t>
-    </r>
-  </si>
-  <si>
-    <t>0556236C</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>键</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PP</t>
-    </r>
-  </si>
-  <si>
-    <t>05562380</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>键</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PP</t>
-    </r>
-  </si>
-  <si>
-    <t>05562394</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1151,366 +2549,6 @@
         <charset val="134"/>
       </rPr>
       <t>制偏移</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伍一角色1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伍一角色2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伍一角色3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伍二角色1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伍二角色2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伍二角色3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伍三角色1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伍三角色2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伍三角色3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伍四角色1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伍四角色2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伍四角色3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伍五角色1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伍五角色2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伍五角色3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伍六角色1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伍六角色2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>队</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>伍六角色3</t>
     </r>
   </si>
   <si>
@@ -2127,13 +3165,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="00000000"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2145,18 +3183,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="MS Gothic"/>
-      <charset val="128"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="MS Gothic"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2172,40 +3204,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="MS Gothic"/>
       <charset val="128"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="0"/>
       <name val="MS Gothic"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="MS Gothic"/>
       <charset val="128"/>
     </font>
@@ -2236,30 +3253,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2274,7 +3275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2287,17 +3288,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2310,6 +3313,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2341,7 +3360,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2355,17 +3374,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2379,6 +3389,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2387,10 +3404,34 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="MS Gothic"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="MS Gothic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -2420,19 +3461,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2444,25 +3521,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2480,13 +3563,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2498,61 +3617,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2564,48 +3641,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2614,46 +3655,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2697,15 +3718,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2721,21 +3733,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2746,6 +3743,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2754,10 +3760,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2766,137 +3772,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2906,115 +3912,106 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3376,48 +4373,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="27.5" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="5.375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="26" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="30" style="26" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
@@ -3426,16 +4423,16 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4"/>
-      <c r="F4"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
@@ -3450,10 +4447,10 @@
       <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F6"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5"/>
@@ -3464,22 +4461,22 @@
       <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E7"/>
-      <c r="F7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F8"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5"/>
@@ -3490,8 +4487,8 @@
       <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E9"/>
-      <c r="F9"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="5"/>
@@ -3502,13 +4499,13 @@
       <c r="D10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="35"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5"/>
@@ -3519,10 +4516,10 @@
       <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F11"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5"/>
@@ -3533,8 +4530,8 @@
       <c r="D12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E12"/>
-      <c r="F12" s="37"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5"/>
@@ -3545,8 +4542,8 @@
       <c r="D13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E13"/>
-      <c r="F13" s="37"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5"/>
@@ -3557,8 +4554,8 @@
       <c r="D14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E14"/>
-      <c r="F14"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5"/>
@@ -3569,8 +4566,8 @@
       <c r="D15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E15"/>
-      <c r="F15"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5"/>
@@ -3581,8 +4578,8 @@
       <c r="D16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E16"/>
-      <c r="F16"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5"/>
@@ -3593,8 +4590,8 @@
       <c r="D17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E17"/>
-      <c r="F17"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5"/>
@@ -3605,10 +4602,10 @@
       <c r="D18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F18"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5"/>
@@ -3619,8 +4616,8 @@
       <c r="D19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E19"/>
-      <c r="F19"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5"/>
@@ -3631,10 +4628,10 @@
       <c r="D20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="32" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3647,8 +4644,8 @@
       <c r="D21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5"/>
@@ -3659,8 +4656,8 @@
       <c r="D22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5"/>
@@ -3671,47 +4668,47 @@
       <c r="D23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="5:5">
-      <c r="E24" s="38"/>
+      <c r="E24" s="35"/>
     </row>
     <row r="25" spans="5:5">
-      <c r="E25" s="38"/>
+      <c r="E25" s="35"/>
     </row>
     <row r="26" spans="4:5">
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
     </row>
     <row r="27" spans="4:5">
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="39"/>
+      <c r="D31" s="36"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="40"/>
+      <c r="C34" s="37"/>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="40"/>
+      <c r="C47" s="37"/>
     </row>
     <row r="60" spans="3:3">
-      <c r="C60" s="40"/>
+      <c r="C60" s="37"/>
     </row>
     <row r="66" spans="4:5">
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
     </row>
     <row r="70" spans="4:4">
-      <c r="D70" s="39"/>
+      <c r="D70" s="36"/>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="40"/>
+      <c r="C73" s="37"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="40"/>
+      <c r="B89" s="37"/>
     </row>
   </sheetData>
   <sheetProtection password="CE2A" sheet="1" objects="1"/>
@@ -3741,172 +4738,173 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="29.375" customWidth="1"/>
-    <col min="4" max="4" width="9" style="23"/>
+    <col min="1" max="1" width="12.25" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9" style="22"/>
+    <col min="5" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="25" t="str">
+      <c r="C1" s="24" t="str">
         <f>VLOOKUP($B1,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B1,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B1,属性偏移数!A:D,4,0)</f>
         <v>02000000 05562290 000003E7</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="25" t="str">
+    <row r="2" spans="1:3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="24" t="str">
         <f>VLOOKUP($B2,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B2,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B2,属性偏移数!A:D,4,0)</f>
         <v>02000000 05562298 00004E20</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="25" t="str">
+    <row r="3" spans="1:3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="24" t="str">
         <f>VLOOKUP($B3,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B3,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B3,属性偏移数!A:D,4,0)</f>
         <v>02000000 055622C4 000001F4</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="25" t="str">
+    <row r="4" spans="1:3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="24" t="str">
         <f>VLOOKUP($B4,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B4,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B4,属性偏移数!A:D,4,0)</f>
-        <v>02000000 05562294 000001F4</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="25" t="str">
+        <v>02000000 055622C8 000001F4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="24" t="str">
         <f>VLOOKUP($B5,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B5,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B5,属性偏移数!A:D,4,0)</f>
-        <v>02000000 05562294 000001F4</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="25" t="str">
+        <v>02000000 055622CC 000001F4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="24" t="str">
         <f>VLOOKUP($B6,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B6,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B6,属性偏移数!A:D,4,0)</f>
-        <v>02000000 05562294 000001F4</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="25" t="str">
+        <v>02000000 055622D0 000001F4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="24" t="str">
         <f>VLOOKUP($B7,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B7,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B7,属性偏移数!A:D,4,0)</f>
-        <v>02000000 05562294 000001F4</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="25" t="str">
+        <v>02000000 055622D4 000001F4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="24" t="str">
         <f>VLOOKUP($B8,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B8,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B8,属性偏移数!A:D,4,0)</f>
-        <v>02000000 05562294 000001F4</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="1:3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="25" t="str">
+        <v>02000000 055622D8 000001F4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="24" t="str">
         <f>VLOOKUP($B9,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B9,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B9,属性偏移数!A:D,4,0)</f>
-        <v>02000000 05562294 000001F4</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="25" t="str">
+        <v>02000000 055622DC 000001F4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="24" t="str">
         <f>VLOOKUP($B10,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B10,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B10,属性偏移数!A:D,4,0)</f>
-        <v>02000000 05562294 000001F4</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="25" t="str">
+        <v>02000000 055622E0 000001F4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="24" t="str">
         <f>VLOOKUP($B11,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B11,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B11,属性偏移数!A:D,4,0)</f>
-        <v>02000000 055622B0 000001F4</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="25" t="str">
+        <v>02000000 055622FC 000001F4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="24" t="str">
         <f>VLOOKUP($B12,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B12,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B12,属性偏移数!A:D,4,0)</f>
-        <v>02000000 055622B0 000001F4</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="25" t="str">
+        <v>02000000 05562300 000001F4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="24" t="str">
         <f>VLOOKUP($B13,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B13,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B13,属性偏移数!A:D,4,0)</f>
         <v>01000000 05562358 00000023</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="25" t="str">
+    <row r="14" spans="1:3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="24" t="str">
         <f>VLOOKUP($B14,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B14,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B14,属性偏移数!A:D,4,0)</f>
-        <v>01000000 055622A4 00000023</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="25" t="str">
+        <v>01000000 0556236C 00000023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="24" t="str">
         <f>VLOOKUP($B15,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B15,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B15,属性偏移数!A:D,4,0)</f>
-        <v>01000000 055622A4 00000023</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="25" t="str">
+        <v>01000000 05562380 00000023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="24" t="str">
         <f>VLOOKUP($B16,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B16,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B16,属性偏移数!A:D,4,0)</f>
-        <v>01000000 055622A4 00000023</v>
+        <v>01000000 05562394 00000023</v>
       </c>
     </row>
   </sheetData>
@@ -3936,257 +4934,261 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="7.75" customWidth="1"/>
-    <col min="3" max="4" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="12" customWidth="1"/>
+    <col min="3" max="4" width="9.5" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="19" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="12">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="22" t="s">
-        <v>61</v>
+      <c r="C2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="B3" s="12">
         <v>8</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:4">
+      <c r="C3" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="20" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B4" s="12">
         <v>52</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="12">
+        <v>56</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="12">
+        <v>60</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="12">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:4">
-      <c r="A5" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="12">
-        <v>4</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="12">
-        <v>4</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="12">
-        <v>4</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:4">
+      <c r="C7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="12">
         <v>68</v>
       </c>
-      <c r="B8" s="12">
-        <v>4</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="1:4">
+      <c r="C8" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="12">
+        <v>72</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="12">
-        <v>4</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:4">
+      <c r="D9" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="20" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B10" s="12">
-        <v>4</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:4">
+        <v>76</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="20" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B11" s="12">
-        <v>4</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:4">
+        <v>80</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="20" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B12" s="12">
-        <v>32</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:4">
+        <v>108</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="20" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B13" s="12">
-        <v>32</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:4">
+        <v>112</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="20" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B14" s="12">
         <v>200</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:4">
+      <c r="C14" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="20" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B15" s="12">
-        <v>20</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:4">
+        <v>220</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="20" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B16" s="12">
-        <v>20</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:4">
+        <v>240</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="20" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B17" s="12">
-        <v>20</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>76</v>
+        <v>260</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="C2:C17" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4198,62 +5200,66 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="4.5" customWidth="1"/>
-    <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="3.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="9" style="12"/>
+    <col min="5" max="5" width="11.5" style="12" customWidth="1"/>
+    <col min="6" max="6" width="4.375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9" style="12"/>
+    <col min="8" max="8" width="32.875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:9">
+    <row r="1" spans="1:9">
       <c r="A1" s="12">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>49</v>
+      <c r="B1" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="C1" s="12">
         <f>$F$1*$A1*$F$2</f>
         <v>336</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>80</v>
+      <c r="E1" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="F1" s="14">
         <v>336</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="12">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>83</v>
+      <c r="B2" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="C2" s="12">
         <f t="shared" ref="C2:C18" si="0">$F$1*$A2*$F$2</f>
         <v>672</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>84</v>
+      <c r="E2" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="F2" s="16">
         <v>1</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="I2" s="18">
         <f>HEX2DEC(I1)+VLOOKUP(公式换算全新界面!$A$1,下拉范围!B:C,2,0)</f>
@@ -4264,8 +5270,8 @@
       <c r="A3" s="12">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>86</v>
+      <c r="B3" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" si="0"/>
@@ -4276,8 +5282,8 @@
       <c r="A4" s="12">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>87</v>
+      <c r="B4" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
@@ -4288,8 +5294,8 @@
       <c r="A5" s="12">
         <v>5</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>88</v>
+      <c r="B5" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" si="0"/>
@@ -4300,8 +5306,8 @@
       <c r="A6" s="12">
         <v>6</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>89</v>
+      <c r="B6" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="C6" s="12">
         <f t="shared" si="0"/>
@@ -4312,8 +5318,8 @@
       <c r="A7" s="12">
         <v>7</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>90</v>
+      <c r="B7" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="C7" s="12">
         <f t="shared" si="0"/>
@@ -4324,8 +5330,8 @@
       <c r="A8" s="12">
         <v>8</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>91</v>
+      <c r="B8" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="C8" s="12">
         <f t="shared" si="0"/>
@@ -4336,8 +5342,8 @@
       <c r="A9" s="12">
         <v>9</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>92</v>
+      <c r="B9" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="C9" s="12">
         <f t="shared" si="0"/>
@@ -4348,8 +5354,8 @@
       <c r="A10" s="12">
         <v>10</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>93</v>
+      <c r="B10" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
@@ -4360,8 +5366,8 @@
       <c r="A11" s="12">
         <v>11</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>94</v>
+      <c r="B11" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="C11" s="12">
         <f t="shared" si="0"/>
@@ -4372,8 +5378,8 @@
       <c r="A12" s="12">
         <v>12</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>95</v>
+      <c r="B12" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" si="0"/>
@@ -4384,8 +5390,8 @@
       <c r="A13" s="12">
         <v>13</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>96</v>
+      <c r="B13" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" si="0"/>
@@ -4396,8 +5402,8 @@
       <c r="A14" s="12">
         <v>14</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>97</v>
+      <c r="B14" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="C14" s="12">
         <f t="shared" si="0"/>
@@ -4408,8 +5414,8 @@
       <c r="A15" s="12">
         <v>15</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>98</v>
+      <c r="B15" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" si="0"/>
@@ -4420,8 +5426,8 @@
       <c r="A16" s="12">
         <v>16</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>99</v>
+      <c r="B16" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="C16" s="12">
         <f t="shared" si="0"/>
@@ -4432,8 +5438,8 @@
       <c r="A17" s="12">
         <v>17</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>100</v>
+      <c r="B17" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="C17" s="12">
         <f t="shared" si="0"/>
@@ -4444,8 +5450,8 @@
       <c r="A18" s="12">
         <v>18</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>101</v>
+      <c r="B18" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="C18" s="12">
         <f t="shared" si="0"/>
@@ -4469,118 +5475,124 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="33.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
-    <col min="3" max="7" width="9.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
+    <col min="2" max="7" width="9.375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>102</v>
+        <v>69</v>
+      </c>
+      <c r="D1" s="4" t="str">
+        <f>DEC2HEX(B38,8)</f>
+        <v>05562290</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>104</v>
+        <v>69</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>DEC2HEX(B38+8,8)</f>
+        <v>05562298</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5"/>
       <c r="B3" s="3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>106</v>
+        <v>69</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f>DEC2HEX(B38+52,8)</f>
+        <v>055622C4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5"/>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>108</v>
+        <v>69</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f t="shared" ref="D4:D10" si="0">DEC2HEX(B40+4,8)</f>
+        <v>055622C8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>110</v>
+        <v>69</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>055622CC</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>112</v>
+        <v>69</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>055622D0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>114</v>
+        <v>69</v>
+      </c>
+      <c r="D7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>055622D4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4589,160 +5601,166 @@
         <v>115</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>116</v>
+        <v>69</v>
+      </c>
+      <c r="D8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>055622D8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>118</v>
+        <v>69</v>
+      </c>
+      <c r="D9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>055622DC</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>120</v>
+        <v>69</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>055622E0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>122</v>
+        <v>69</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f>DEC2HEX(B46+32,8)</f>
+        <v>055622FC</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>124</v>
+        <v>69</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f>DEC2HEX(B47+32,8)</f>
+        <v>05562300</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>126</v>
+        <v>85</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f>DEC2HEX(B38+200,8)</f>
+        <v>05562358</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>128</v>
+        <v>85</v>
+      </c>
+      <c r="D14" s="4" t="str">
+        <f>DEC2HEX(B49+20,8)</f>
+        <v>0556236C</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>130</v>
+        <v>85</v>
+      </c>
+      <c r="D15" s="4" t="str">
+        <f>DEC2HEX(B50+20,8)</f>
+        <v>05562380</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>132</v>
+        <v>85</v>
+      </c>
+      <c r="D16" s="4" t="str">
+        <f>DEC2HEX(B51+20,8)</f>
+        <v>05562394</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" hidden="1" spans="1:5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" hidden="1" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B17" s="7">
+        <f>IF(A1=A18,B18,IF(A1=A19,B19,IF(A1=A20,B20,IF(A1=A21,B21,IF(A1=A22,B22,IF(A1=A23,B23,IF(A1=A24,B24,IF(A1=A25,B25,IF(A1=A26,B26,IF(A1=A27,B27,IF(A1=A28,B28,IF(A1=A29,B29,IF(A1=A30,B30,IF(A1=A31,B31,IF(A1=A32,B32,IF(A1=A33,B33,IF(A1=A34,B34,IF(A1=A35,B35))))))))))))))))))</f>
         <v>336</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" hidden="1" spans="1:5">
+    </row>
+    <row r="18" hidden="1" spans="1:3">
       <c r="A18" s="9" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="B18" s="7">
         <v>336</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
     </row>
     <row r="19" hidden="1" spans="1:5">
       <c r="A19" s="9" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="B19" s="7">
         <v>672</v>
@@ -4753,7 +5771,7 @@
     </row>
     <row r="20" hidden="1" spans="1:5">
       <c r="A20" s="9" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="B20" s="7">
         <v>1008</v>
@@ -4764,7 +5782,7 @@
     </row>
     <row r="21" hidden="1" spans="1:5">
       <c r="A21" s="9" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="B21" s="7">
         <v>1344</v>
@@ -4775,7 +5793,7 @@
     </row>
     <row r="22" hidden="1" spans="1:5">
       <c r="A22" s="9" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="B22" s="7">
         <v>1680</v>
@@ -4786,7 +5804,7 @@
     </row>
     <row r="23" hidden="1" spans="1:5">
       <c r="A23" s="9" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="B23" s="7">
         <v>2016</v>
@@ -4797,7 +5815,7 @@
     </row>
     <row r="24" hidden="1" spans="1:5">
       <c r="A24" s="9" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="B24" s="7">
         <v>2352</v>
@@ -4808,7 +5826,7 @@
     </row>
     <row r="25" hidden="1" spans="1:5">
       <c r="A25" s="9" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="B25" s="7">
         <v>2688</v>
@@ -4819,7 +5837,7 @@
     </row>
     <row r="26" hidden="1" spans="1:5">
       <c r="A26" s="9" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="B26" s="7">
         <v>3024</v>
@@ -4830,7 +5848,7 @@
     </row>
     <row r="27" hidden="1" spans="1:5">
       <c r="A27" s="9" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="B27" s="7">
         <v>3360</v>
@@ -4841,7 +5859,7 @@
     </row>
     <row r="28" hidden="1" spans="1:5">
       <c r="A28" s="9" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="B28" s="7">
         <v>3696</v>
@@ -4852,7 +5870,7 @@
     </row>
     <row r="29" hidden="1" spans="1:5">
       <c r="A29" s="9" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B29" s="7">
         <v>4032</v>
@@ -4863,7 +5881,7 @@
     </row>
     <row r="30" hidden="1" spans="1:5">
       <c r="A30" s="9" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B30" s="7">
         <v>4368</v>
@@ -4874,7 +5892,7 @@
     </row>
     <row r="31" hidden="1" spans="1:5">
       <c r="A31" s="9" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="B31" s="7">
         <v>4704</v>
@@ -4885,7 +5903,7 @@
     </row>
     <row r="32" hidden="1" spans="1:5">
       <c r="A32" s="9" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="B32" s="7">
         <v>5040</v>
@@ -4896,7 +5914,7 @@
     </row>
     <row r="33" hidden="1" spans="1:5">
       <c r="A33" s="9" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="B33" s="7">
         <v>5376</v>
@@ -4907,7 +5925,7 @@
     </row>
     <row r="34" hidden="1" spans="1:5">
       <c r="A34" s="9" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="B34" s="7">
         <v>5712</v>
@@ -4918,7 +5936,7 @@
     </row>
     <row r="35" hidden="1" spans="1:5">
       <c r="A35" s="9" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="B35" s="7">
         <v>6048</v>
@@ -4928,167 +5946,134 @@
       <c r="E35" s="7"/>
     </row>
     <row r="36" hidden="1"/>
-    <row r="37" hidden="1" spans="1:5">
+    <row r="37" hidden="1" spans="1:2">
       <c r="A37" s="10" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" hidden="1" spans="1:5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" hidden="1" spans="1:2">
       <c r="A38" s="10" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="B38" s="11">
+        <f>HEX2DEC(B37)+(B17)</f>
         <v>89531024</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" hidden="1" spans="1:5">
+    </row>
+    <row r="39" hidden="1" spans="1:2">
       <c r="A39" s="10"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" hidden="1" spans="1:5">
+    </row>
+    <row r="40" hidden="1" spans="1:2">
       <c r="A40" s="10" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="B40" s="11">
+        <f t="shared" ref="B40:B47" si="1">HEX2DEC(D3)</f>
         <v>89531076</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" hidden="1" spans="1:5">
+    </row>
+    <row r="41" hidden="1" spans="1:2">
       <c r="A41" s="10" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="B41" s="11">
+        <f t="shared" si="1"/>
         <v>89531080</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" hidden="1" spans="1:5">
+    </row>
+    <row r="42" hidden="1" spans="1:2">
       <c r="A42" s="10" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="B42" s="11">
+        <f t="shared" si="1"/>
         <v>89531084</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" hidden="1" spans="1:5">
+    </row>
+    <row r="43" hidden="1" spans="1:2">
       <c r="A43" s="10" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="B43" s="11">
+        <f t="shared" si="1"/>
         <v>89531088</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" hidden="1" spans="1:5">
+    </row>
+    <row r="44" hidden="1" spans="1:2">
       <c r="A44" s="10" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="B44" s="11">
+        <f t="shared" si="1"/>
         <v>89531092</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" hidden="1" spans="1:5">
+    </row>
+    <row r="45" hidden="1" spans="1:2">
       <c r="A45" s="10" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="B45" s="11">
+        <f t="shared" si="1"/>
         <v>89531096</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" hidden="1" spans="1:5">
+    </row>
+    <row r="46" hidden="1" spans="1:2">
       <c r="A46" s="10" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="B46" s="11">
+        <f t="shared" si="1"/>
         <v>89531100</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" hidden="1" spans="1:5">
+    </row>
+    <row r="47" hidden="1" spans="1:2">
       <c r="A47" s="10" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="B47" s="11">
+        <f t="shared" si="1"/>
         <v>89531104</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" hidden="1" spans="1:5">
+    </row>
+    <row r="48" hidden="1" spans="1:2">
       <c r="A48" s="10"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" hidden="1" spans="1:5">
+    </row>
+    <row r="49" hidden="1" spans="1:2">
       <c r="A49" s="10" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="B49" s="11">
+        <f>HEX2DEC(D13)</f>
         <v>89531224</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-    </row>
-    <row r="50" hidden="1" spans="1:5">
+    </row>
+    <row r="50" hidden="1" spans="1:2">
       <c r="A50" s="10" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="B50" s="11">
+        <f>HEX2DEC(D14)</f>
         <v>89531244</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" hidden="1" spans="1:5">
+    </row>
+    <row r="51" hidden="1" spans="1:2">
       <c r="A51" s="10" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="B51" s="11">
+        <f>HEX2DEC(D15)</f>
         <v>89531264</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
     </row>
   </sheetData>
   <sheetProtection password="CE2A" sheet="1" objects="1"/>
   <protectedRanges>
-    <protectedRange sqref="A1" name="区域1" securityDescriptor="O:WDG:WDD:"/>
+    <protectedRange sqref="A1" name="区域1" securityDescriptor=""/>
   </protectedRanges>
   <mergeCells count="1">
     <mergeCell ref="A1:A16"/>

--- a/ポケモン不思議のダンジョン救助隊DX.xlsx
+++ b/ポケモン不思議のダンジョン救助隊DX.xlsx
@@ -268,25 +268,57 @@
         <rFont val="MS Gothic"/>
         <charset val="134"/>
       </rPr>
-      <t>能力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>值为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>迷</t>
+      <t>攻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>MAIN+0x055622C8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>防御(迷</t>
     </r>
     <r>
       <rPr>
@@ -304,36 +336,21 @@
         <rFont val="MS Gothic"/>
         <charset val="134"/>
       </rPr>
-      <t>内BUFF最高500</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>攻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>击</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
+      <t>BUFF)</t>
+    </r>
+  </si>
+  <si>
+    <t>MAIN+0x055622CC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>防御（</t>
     </r>
     <r>
       <rPr>
@@ -355,35 +372,17 @@
     </r>
   </si>
   <si>
-    <t>MAIN+0x055622C8</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>此功能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>迷</t>
+    <t>MAIN+0x055622D0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特攻(迷</t>
     </r>
     <r>
       <rPr>
@@ -401,18 +400,53 @@
         <rFont val="MS Gothic"/>
         <charset val="134"/>
       </rPr>
-      <t>后生效</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>防御(迷</t>
+      <t>BUFF)</t>
+    </r>
+  </si>
+  <si>
+    <t>MAIN+0x055622D4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特攻（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>MAIN+0x055622D8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特防(迷</t>
     </r>
     <r>
       <rPr>
@@ -434,17 +468,17 @@
     </r>
   </si>
   <si>
-    <t>MAIN+0x055622CC</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>防御（</t>
+    <t>MAIN+0x055622DC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特防（</t>
     </r>
     <r>
       <rPr>
@@ -466,17 +500,17 @@
     </r>
   </si>
   <si>
-    <t>MAIN+0x055622D0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>特攻(迷</t>
+    <t>MAIN+0x055622E0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>速度(迷</t>
     </r>
     <r>
       <rPr>
@@ -498,17 +532,20 @@
     </r>
   </si>
   <si>
-    <t>MAIN+0x055622D4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>特攻（</t>
+    <t>MAIN+0x055622FC</t>
+  </si>
+  <si>
+    <t>与特防位置+20</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>速度（</t>
     </r>
     <r>
       <rPr>
@@ -530,137 +567,6 @@
     </r>
   </si>
   <si>
-    <t>MAIN+0x055622D8</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>特防(迷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BUFF)</t>
-    </r>
-  </si>
-  <si>
-    <t>MAIN+0x055622DC</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>特防（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实际</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>MAIN+0x055622E0</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>速度(迷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BUFF)</t>
-    </r>
-  </si>
-  <si>
-    <t>MAIN+0x055622FC</t>
-  </si>
-  <si>
-    <t>与特防位置+20</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>速度（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实际</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
     <t>MAIN+0x05562300</t>
   </si>
   <si>
@@ -840,6 +746,12 @@
   </si>
   <si>
     <t>MAIN+0x05562394</t>
+  </si>
+  <si>
+    <t>(迷宫内BUFF)最高500,在迷宫中升级会显示全部都满255，但离开迷宫数值为实际增加为准</t>
+  </si>
+  <si>
+    <t>（实际）修改此项进入迷宫不会有变化，需要完成一次迷宫后回到营地查看即可生效</t>
   </si>
   <si>
     <t>队伍一角色1</t>
@@ -3165,13 +3077,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="00000000"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3227,6 +3139,12 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="MS Gothic"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -3253,6 +3171,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="MS Gothic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3260,7 +3191,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3281,39 +3212,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3343,6 +3244,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -3359,38 +3312,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3461,13 +3385,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3479,169 +3565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3658,23 +3582,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3709,25 +3651,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3743,15 +3676,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3760,10 +3684,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3772,137 +3696,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3981,10 +3905,13 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3993,19 +3920,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4373,48 +4306,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="30" style="26" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="26"/>
+    <col min="1" max="1" width="5.375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="30" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
@@ -4447,7 +4380,7 @@
       <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="31" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="7"/>
@@ -4473,7 +4406,7 @@
       <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="32" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="7"/>
@@ -4499,25 +4432,20 @@
       <c r="D10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="33"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F11" s="7"/>
     </row>
@@ -4525,34 +4453,34 @@
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="34"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="34"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -4561,10 +4489,10 @@
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -4573,10 +4501,10 @@
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -4585,10 +4513,10 @@
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -4597,13 +4525,13 @@
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="33" t="s">
         <v>34</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>36</v>
       </c>
       <c r="F18" s="7"/>
     </row>
@@ -4611,10 +4539,10 @@
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -4623,97 +4551,113 @@
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="F20" s="33" t="s">
         <v>40</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="34"/>
+        <v>42</v>
+      </c>
+      <c r="E21" s="35"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="34"/>
+        <v>44</v>
+      </c>
+      <c r="E22" s="35"/>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" s="26" customFormat="1" spans="1:6">
+      <c r="A24" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" s="26" customFormat="1" spans="1:6">
+      <c r="A25" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="5:5">
-      <c r="E24" s="35"/>
-    </row>
-    <row r="25" spans="5:5">
-      <c r="E25" s="35"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" spans="4:5">
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
     </row>
     <row r="27" spans="4:5">
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="36"/>
+      <c r="D31" s="39"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="37"/>
+      <c r="C34" s="40"/>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="37"/>
+      <c r="C47" s="40"/>
     </row>
     <row r="60" spans="3:3">
-      <c r="C60" s="37"/>
+      <c r="C60" s="40"/>
     </row>
     <row r="66" spans="4:5">
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
     </row>
     <row r="70" spans="4:4">
-      <c r="D70" s="36"/>
+      <c r="D70" s="39"/>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="37"/>
+      <c r="C73" s="40"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="37"/>
+      <c r="B89" s="40"/>
     </row>
   </sheetData>
   <sheetProtection password="CE2A" sheet="1" objects="1"/>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
     <mergeCell ref="A6:A23"/>
     <mergeCell ref="B6:B23"/>
     <mergeCell ref="A1:D3"/>
@@ -5678,7 +5622,7 @@
     <row r="13" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>85</v>
@@ -5694,7 +5638,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>85</v>
@@ -5710,7 +5654,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>85</v>
@@ -5726,7 +5670,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>85</v>

--- a/ポケモン不思議のダンジョン救助隊DX.xlsx
+++ b/ポケモン不思議のダンジョン救助隊DX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21375" windowHeight="18045" tabRatio="820"/>
+    <workbookView windowWidth="23130" windowHeight="17865" tabRatio="820"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
@@ -602,6 +602,41 @@
     <t>MAIN+0x05562358</t>
   </si>
   <si>
+    <t>与HP位置+C8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PP</t>
+    </r>
+  </si>
+  <si>
+    <t>MAIN+0x0556236C</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -649,17 +684,14 @@
     </r>
   </si>
   <si>
-    <t>与HP位置+C8</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>B</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>X</t>
     </r>
     <r>
       <rPr>
@@ -681,17 +713,17 @@
     </r>
   </si>
   <si>
-    <t>MAIN+0x0556236C</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X</t>
+    <t>MAIN+0x05562380</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Y</t>
     </r>
     <r>
       <rPr>
@@ -713,42 +745,111 @@
     </r>
   </si>
   <si>
-    <t>MAIN+0x05562380</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>键</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PP</t>
-    </r>
-  </si>
-  <si>
     <t>MAIN+0x05562394</t>
   </si>
   <si>
-    <t>(迷宫内BUFF)最高500,在迷宫中升级会显示全部都满255，但离开迷宫数值为实际增加为准</t>
+    <r>
+      <t>(迷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>宫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>内BUFF)最高500,迷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>宫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>中升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>全部都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>满</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>255，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>营地里查看数值为正常增长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
+      <t>速度会被固定修改所以不建议使用</t>
+    </r>
   </si>
   <si>
     <t>（实际）修改此项进入迷宫不会有变化，需要完成一次迷宫后回到营地查看即可生效</t>
@@ -3077,13 +3178,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="00000000"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="00000000"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3105,6 +3206,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="MS Gothic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.35"/>
       <name val="MS Gothic"/>
       <charset val="134"/>
     </font>
@@ -3135,6 +3243,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="MS Gothic"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.35"/>
       <name val="MS Gothic"/>
       <charset val="128"/>
     </font>
@@ -3177,21 +3292,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3206,7 +3330,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3214,22 +3366,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3244,37 +3380,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3291,22 +3422,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3357,6 +3472,12 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -3385,19 +3506,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3409,67 +3530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3487,19 +3554,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3511,7 +3572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3529,7 +3590,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3541,13 +3638,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3559,13 +3668,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3582,41 +3703,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3651,6 +3739,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3684,10 +3805,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3696,137 +3817,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3851,15 +3972,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3872,79 +3999,85 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4306,48 +4439,48 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="27" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="30" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="5.375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="30" style="30" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
@@ -4380,7 +4513,7 @@
       <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="7"/>
@@ -4400,13 +4533,13 @@
     <row r="8" spans="1:6">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="35" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="7"/>
@@ -4432,11 +4565,11 @@
       <c r="D10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="36" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="34"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5"/>
@@ -4459,7 +4592,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="35"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5"/>
@@ -4471,7 +4604,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="7"/>
-      <c r="F13" s="35"/>
+      <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5"/>
@@ -4527,10 +4660,10 @@
       <c r="C18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="36" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="7"/>
@@ -4541,13 +4674,13 @@
       <c r="C19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="39" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="7" t="s">
@@ -4556,23 +4689,22 @@
       <c r="D20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="36" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="35"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6">
@@ -4584,7 +4716,7 @@
       <c r="D22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="35"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6">
@@ -4596,61 +4728,61 @@
       <c r="D23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="35"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" s="26" customFormat="1" spans="1:6">
-      <c r="A24" s="36" t="s">
+    <row r="24" s="29" customFormat="1" spans="1:6">
+      <c r="A24" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-    </row>
-    <row r="25" s="26" customFormat="1" spans="1:6">
-      <c r="A25" s="37" t="s">
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+    </row>
+    <row r="25" s="29" customFormat="1" spans="1:6">
+      <c r="A25" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
     </row>
     <row r="26" spans="4:5">
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="4:5">
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="39"/>
+      <c r="D31" s="43"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="40"/>
+      <c r="C34" s="44"/>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="40"/>
+      <c r="C47" s="44"/>
     </row>
     <row r="60" spans="3:3">
-      <c r="C60" s="40"/>
+      <c r="C60" s="44"/>
     </row>
     <row r="66" spans="4:5">
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
     </row>
     <row r="70" spans="4:4">
-      <c r="D70" s="39"/>
+      <c r="D70" s="43"/>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="40"/>
+      <c r="C73" s="44"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="40"/>
+      <c r="B89" s="44"/>
     </row>
   </sheetData>
   <sheetProtection password="CE2A" sheet="1" objects="1"/>
@@ -4685,7 +4817,7 @@
     <col min="1" max="1" width="12.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="7" customWidth="1"/>
     <col min="3" max="3" width="29.375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9" style="22"/>
+    <col min="4" max="4" width="9" style="24"/>
     <col min="5" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -4693,160 +4825,160 @@
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="24" t="str">
+      <c r="C1" s="26" t="str">
         <f>VLOOKUP($B1,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B1,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B1,属性偏移数!A:D,4,0)</f>
         <v>02000000 05562290 000003E7</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="24" t="str">
+      <c r="C2" s="26" t="str">
         <f>VLOOKUP($B2,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B2,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B2,属性偏移数!A:D,4,0)</f>
         <v>02000000 05562298 00004E20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="24" t="str">
+      <c r="C3" s="26" t="str">
         <f>VLOOKUP($B3,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B3,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B3,属性偏移数!A:D,4,0)</f>
         <v>02000000 055622C4 000001F4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5"/>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="24" t="str">
+      <c r="C4" s="26" t="str">
         <f>VLOOKUP($B4,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B4,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B4,属性偏移数!A:D,4,0)</f>
         <v>02000000 055622C8 000001F4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="24" t="str">
+      <c r="C5" s="26" t="str">
         <f>VLOOKUP($B5,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B5,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B5,属性偏移数!A:D,4,0)</f>
         <v>02000000 055622CC 000001F4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5"/>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="24" t="str">
+      <c r="C6" s="26" t="str">
         <f>VLOOKUP($B6,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B6,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B6,属性偏移数!A:D,4,0)</f>
         <v>02000000 055622D0 000001F4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5"/>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="24" t="str">
+      <c r="C7" s="26" t="str">
         <f>VLOOKUP($B7,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B7,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B7,属性偏移数!A:D,4,0)</f>
         <v>02000000 055622D4 000001F4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="24" t="str">
+      <c r="C8" s="26" t="str">
         <f>VLOOKUP($B8,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B8,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B8,属性偏移数!A:D,4,0)</f>
         <v>02000000 055622D8 000001F4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5"/>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="24" t="str">
+      <c r="C9" s="26" t="str">
         <f>VLOOKUP($B9,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B9,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B9,属性偏移数!A:D,4,0)</f>
         <v>02000000 055622DC 000001F4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5"/>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="24" t="str">
+      <c r="C10" s="26" t="str">
         <f>VLOOKUP($B10,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B10,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B10,属性偏移数!A:D,4,0)</f>
         <v>02000000 055622E0 000001F4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="24" t="str">
+      <c r="C11" s="28" t="str">
         <f>VLOOKUP($B11,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B11,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B11,属性偏移数!A:D,4,0)</f>
         <v>02000000 055622FC 000001F4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5"/>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="24" t="str">
+      <c r="C12" s="28" t="str">
         <f>VLOOKUP($B12,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B12,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B12,属性偏移数!A:D,4,0)</f>
         <v>02000000 05562300 000001F4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5"/>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="24" t="str">
+      <c r="C13" s="26" t="str">
         <f>VLOOKUP($B13,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B13,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B13,属性偏移数!A:D,4,0)</f>
         <v>01000000 05562358 00000023</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5"/>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="24" t="str">
+      <c r="C14" s="26" t="str">
         <f>VLOOKUP($B14,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B14,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B14,属性偏移数!A:D,4,0)</f>
         <v>01000000 0556236C 00000023</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5"/>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="24" t="str">
+      <c r="C15" s="26" t="str">
         <f>VLOOKUP($B15,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B15,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B15,属性偏移数!A:D,4,0)</f>
         <v>01000000 05562380 00000023</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5"/>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="24" t="str">
+      <c r="C16" s="26" t="str">
         <f>VLOOKUP($B16,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B16,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B16,属性偏移数!A:D,4,0)</f>
         <v>01000000 05562394 00000023</v>
       </c>
@@ -4883,247 +5015,247 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="12" customWidth="1"/>
-    <col min="3" max="4" width="9.5" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="15.625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="14" customWidth="1"/>
+    <col min="3" max="4" width="9.5" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="21" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="14">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="14">
         <v>8</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="19" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="14">
         <v>52</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="14">
         <v>56</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="14">
         <v>60</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="14">
         <v>64</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="14">
         <v>68</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="14">
         <v>72</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="14">
         <v>76</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="14">
         <v>80</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="14">
         <v>108</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="14">
         <v>112</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="14">
         <v>200</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="14">
         <v>220</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="14">
         <v>240</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="14">
         <v>260</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="19" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5149,255 +5281,255 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="12" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="9" style="12"/>
-    <col min="5" max="5" width="11.5" style="12" customWidth="1"/>
-    <col min="6" max="6" width="4.375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="9" style="12"/>
-    <col min="8" max="8" width="32.875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="3.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="14" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="11.5" style="14" customWidth="1"/>
+    <col min="6" max="6" width="4.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="32.875" style="14" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="12">
+      <c r="A1" s="14">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="14">
         <f>$F$1*$A1*$F$2</f>
         <v>336</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="16">
         <v>336</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="19" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="12">
+      <c r="A2" s="14">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="14">
         <f t="shared" ref="C2:C18" si="0">$F$1*$A2*$F$2</f>
         <v>672</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="18">
         <v>1</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="20">
         <f>HEX2DEC(I1)+VLOOKUP(公式换算全新界面!$A$1,下拉范围!B:C,2,0)</f>
         <v>89531024</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12">
+      <c r="A3" s="14">
         <v>3</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="14">
         <f t="shared" si="0"/>
         <v>1008</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="12">
+      <c r="A4" s="14">
         <v>4</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="14">
         <f t="shared" si="0"/>
         <v>1344</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12">
+      <c r="A5" s="14">
         <v>5</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="14">
         <f t="shared" si="0"/>
         <v>1680</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="12">
+      <c r="A6" s="14">
         <v>6</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="14">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="12">
+      <c r="A7" s="14">
         <v>7</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="14">
         <f t="shared" si="0"/>
         <v>2352</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="12">
+      <c r="A8" s="14">
         <v>8</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="14">
         <f t="shared" si="0"/>
         <v>2688</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="12">
+      <c r="A9" s="14">
         <v>9</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="14">
         <f t="shared" si="0"/>
         <v>3024</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12">
+      <c r="A10" s="14">
         <v>10</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="14">
         <f t="shared" si="0"/>
         <v>3360</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="12">
+      <c r="A11" s="14">
         <v>11</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="14">
         <f t="shared" si="0"/>
         <v>3696</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="12">
+      <c r="A12" s="14">
         <v>12</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="14">
         <f t="shared" si="0"/>
         <v>4032</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="12">
+      <c r="A13" s="14">
         <v>13</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="14">
         <f t="shared" si="0"/>
         <v>4368</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="12">
+      <c r="A14" s="14">
         <v>14</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="14">
         <f t="shared" si="0"/>
         <v>4704</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="12">
+      <c r="A15" s="14">
         <v>15</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="14">
         <f t="shared" si="0"/>
         <v>5040</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="12">
+      <c r="A16" s="14">
         <v>16</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="14">
         <f t="shared" si="0"/>
         <v>5376</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="12">
+      <c r="A17" s="14">
         <v>17</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="14">
         <f t="shared" si="0"/>
         <v>5712</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="12">
+      <c r="A18" s="14">
         <v>18</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="14">
         <f t="shared" si="0"/>
         <v>6048</v>
       </c>
@@ -5592,14 +5724,14 @@
       <c r="B11" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="4" t="str">
+      <c r="D11" s="9" t="str">
         <f>DEC2HEX(B46+32,8)</f>
         <v>055622FC</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="8" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5608,14 +5740,14 @@
       <c r="B12" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="4" t="str">
+      <c r="D12" s="9" t="str">
         <f>DEC2HEX(B47+32,8)</f>
         <v>05562300</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="8" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5638,7 +5770,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>85</v>
@@ -5684,7 +5816,7 @@
       </c>
     </row>
     <row r="17" hidden="1" spans="1:3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="10" t="s">
         <v>118</v>
       </c>
       <c r="B17" s="7">
@@ -5694,7 +5826,7 @@
       <c r="C17" s="3"/>
     </row>
     <row r="18" hidden="1" spans="1:3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B18" s="7">
@@ -5703,7 +5835,7 @@
       <c r="C18" s="7"/>
     </row>
     <row r="19" hidden="1" spans="1:5">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="11" t="s">
         <v>94</v>
       </c>
       <c r="B19" s="7">
@@ -5714,7 +5846,7 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" hidden="1" spans="1:5">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B20" s="7">
@@ -5725,7 +5857,7 @@
       <c r="E20" s="7"/>
     </row>
     <row r="21" hidden="1" spans="1:5">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B21" s="7">
@@ -5736,7 +5868,7 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" hidden="1" spans="1:5">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="11" t="s">
         <v>99</v>
       </c>
       <c r="B22" s="7">
@@ -5747,7 +5879,7 @@
       <c r="E22" s="7"/>
     </row>
     <row r="23" hidden="1" spans="1:5">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="11" t="s">
         <v>100</v>
       </c>
       <c r="B23" s="7">
@@ -5758,7 +5890,7 @@
       <c r="E23" s="7"/>
     </row>
     <row r="24" hidden="1" spans="1:5">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="11" t="s">
         <v>101</v>
       </c>
       <c r="B24" s="7">
@@ -5769,7 +5901,7 @@
       <c r="E24" s="7"/>
     </row>
     <row r="25" hidden="1" spans="1:5">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B25" s="7">
@@ -5780,7 +5912,7 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" hidden="1" spans="1:5">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B26" s="7">
@@ -5791,7 +5923,7 @@
       <c r="E26" s="7"/>
     </row>
     <row r="27" hidden="1" spans="1:5">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="11" t="s">
         <v>104</v>
       </c>
       <c r="B27" s="7">
@@ -5802,7 +5934,7 @@
       <c r="E27" s="7"/>
     </row>
     <row r="28" hidden="1" spans="1:5">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B28" s="7">
@@ -5813,7 +5945,7 @@
       <c r="E28" s="7"/>
     </row>
     <row r="29" hidden="1" spans="1:5">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B29" s="7">
@@ -5824,7 +5956,7 @@
       <c r="E29" s="7"/>
     </row>
     <row r="30" hidden="1" spans="1:5">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="11" t="s">
         <v>107</v>
       </c>
       <c r="B30" s="7">
@@ -5835,7 +5967,7 @@
       <c r="E30" s="7"/>
     </row>
     <row r="31" hidden="1" spans="1:5">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="11" t="s">
         <v>108</v>
       </c>
       <c r="B31" s="7">
@@ -5846,7 +5978,7 @@
       <c r="E31" s="7"/>
     </row>
     <row r="32" hidden="1" spans="1:5">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="11" t="s">
         <v>109</v>
       </c>
       <c r="B32" s="7">
@@ -5857,7 +5989,7 @@
       <c r="E32" s="7"/>
     </row>
     <row r="33" hidden="1" spans="1:5">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="11" t="s">
         <v>110</v>
       </c>
       <c r="B33" s="7">
@@ -5868,7 +6000,7 @@
       <c r="E33" s="7"/>
     </row>
     <row r="34" hidden="1" spans="1:5">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="11" t="s">
         <v>111</v>
       </c>
       <c r="B34" s="7">
@@ -5879,7 +6011,7 @@
       <c r="E34" s="7"/>
     </row>
     <row r="35" hidden="1" spans="1:5">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="11" t="s">
         <v>112</v>
       </c>
       <c r="B35" s="7">
@@ -5891,7 +6023,7 @@
     </row>
     <row r="36" hidden="1"/>
     <row r="37" hidden="1" spans="1:2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="12" t="s">
         <v>119</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -5899,117 +6031,117 @@
       </c>
     </row>
     <row r="38" hidden="1" spans="1:2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="13">
         <f>HEX2DEC(B37)+(B17)</f>
         <v>89531024</v>
       </c>
     </row>
     <row r="39" hidden="1" spans="1:2">
-      <c r="A39" s="10"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="3"/>
     </row>
     <row r="40" hidden="1" spans="1:2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="13">
         <f t="shared" ref="B40:B47" si="1">HEX2DEC(D3)</f>
         <v>89531076</v>
       </c>
     </row>
     <row r="41" hidden="1" spans="1:2">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="13">
         <f t="shared" si="1"/>
         <v>89531080</v>
       </c>
     </row>
     <row r="42" hidden="1" spans="1:2">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="13">
         <f t="shared" si="1"/>
         <v>89531084</v>
       </c>
     </row>
     <row r="43" hidden="1" spans="1:2">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="13">
         <f t="shared" si="1"/>
         <v>89531088</v>
       </c>
     </row>
     <row r="44" hidden="1" spans="1:2">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="13">
         <f t="shared" si="1"/>
         <v>89531092</v>
       </c>
     </row>
     <row r="45" hidden="1" spans="1:2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="13">
         <f t="shared" si="1"/>
         <v>89531096</v>
       </c>
     </row>
     <row r="46" hidden="1" spans="1:2">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="13">
         <f t="shared" si="1"/>
         <v>89531100</v>
       </c>
     </row>
     <row r="47" hidden="1" spans="1:2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="13">
         <f t="shared" si="1"/>
         <v>89531104</v>
       </c>
     </row>
     <row r="48" hidden="1" spans="1:2">
-      <c r="A48" s="10"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="3"/>
     </row>
     <row r="49" hidden="1" spans="1:2">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="13">
         <f>HEX2DEC(D13)</f>
         <v>89531224</v>
       </c>
     </row>
     <row r="50" hidden="1" spans="1:2">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="13">
         <f>HEX2DEC(D14)</f>
         <v>89531244</v>
       </c>
     </row>
     <row r="51" hidden="1" spans="1:2">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="13">
         <f>HEX2DEC(D15)</f>
         <v>89531264</v>
       </c>

--- a/ポケモン不思議のダンジョン救助隊DX.xlsx
+++ b/ポケモン不思議のダンジョン救助隊DX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23130" windowHeight="17865" tabRatio="820"/>
+    <workbookView windowWidth="23130" windowHeight="17880" tabRatio="820"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
   <si>
     <t>Switch P5S自助DIY数据表 by 露易娘
 http://ruisan.blog.jp/
@@ -749,6 +749,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
       <t>(迷</t>
     </r>
     <r>
@@ -853,6 +859,26 @@
   </si>
   <si>
     <t>（实际）修改此项进入迷宫不会有变化，需要完成一次迷宫后回到营地查看即可生效</t>
+  </si>
+  <si>
+    <t>救助队ランク经验</t>
+  </si>
+  <si>
+    <t>MAIN+0x055670C4</t>
+  </si>
+  <si>
+    <r>
+      <t>最高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="128"/>
+      </rPr>
+      <t>59800=E998</t>
+    </r>
   </si>
   <si>
     <t>队伍一角色1</t>
@@ -3178,13 +3204,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="00000000"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3292,6 +3318,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3343,8 +3375,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3358,7 +3399,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3397,7 +3438,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3411,17 +3452,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3518,138 +3550,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3668,6 +3568,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3680,6 +3592,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3687,6 +3671,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3739,11 +3771,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3753,6 +3791,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3772,21 +3819,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3805,10 +3837,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3817,137 +3849,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4073,6 +4105,12 @@
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4434,7 +4472,7 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D3"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4751,38 +4789,45 @@
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
     </row>
-    <row r="26" spans="4:5">
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
+    <row r="26" spans="3:5">
+      <c r="C26" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="27" spans="4:5">
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="43"/>
+      <c r="D31" s="45"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="44"/>
+      <c r="C34" s="46"/>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="44"/>
+      <c r="C47" s="46"/>
     </row>
     <row r="60" spans="3:3">
-      <c r="C60" s="44"/>
+      <c r="C60" s="46"/>
     </row>
     <row r="66" spans="4:5">
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
     </row>
     <row r="70" spans="4:4">
-      <c r="D70" s="43"/>
+      <c r="D70" s="45"/>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="44"/>
+      <c r="C73" s="46"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="44"/>
+      <c r="B89" s="46"/>
     </row>
   </sheetData>
   <sheetProtection password="CE2A" sheet="1" objects="1"/>
@@ -4823,7 +4868,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>5</v>
@@ -4836,7 +4881,7 @@
     <row r="2" spans="1:3">
       <c r="A2" s="5"/>
       <c r="B2" s="27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C2" s="26" t="str">
         <f>VLOOKUP($B2,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B2,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B2,属性偏移数!A:D,4,0)</f>
@@ -4846,7 +4891,7 @@
     <row r="3" spans="1:3">
       <c r="A3" s="5"/>
       <c r="B3" s="25" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" s="26" t="str">
         <f>VLOOKUP($B3,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B3,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B3,属性偏移数!A:D,4,0)</f>
@@ -4856,7 +4901,7 @@
     <row r="4" spans="1:3">
       <c r="A4" s="5"/>
       <c r="B4" s="25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" s="26" t="str">
         <f>VLOOKUP($B4,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B4,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B4,属性偏移数!A:D,4,0)</f>
@@ -4866,7 +4911,7 @@
     <row r="5" spans="1:3">
       <c r="A5" s="5"/>
       <c r="B5" s="25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" s="26" t="str">
         <f>VLOOKUP($B5,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B5,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B5,属性偏移数!A:D,4,0)</f>
@@ -4876,7 +4921,7 @@
     <row r="6" spans="1:3">
       <c r="A6" s="5"/>
       <c r="B6" s="25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C6" s="26" t="str">
         <f>VLOOKUP($B6,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B6,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B6,属性偏移数!A:D,4,0)</f>
@@ -4886,7 +4931,7 @@
     <row r="7" spans="1:3">
       <c r="A7" s="5"/>
       <c r="B7" s="25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C7" s="26" t="str">
         <f>VLOOKUP($B7,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B7,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B7,属性偏移数!A:D,4,0)</f>
@@ -4896,7 +4941,7 @@
     <row r="8" spans="1:3">
       <c r="A8" s="5"/>
       <c r="B8" s="25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C8" s="26" t="str">
         <f>VLOOKUP($B8,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B8,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B8,属性偏移数!A:D,4,0)</f>
@@ -4906,7 +4951,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="5"/>
       <c r="B9" s="25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C9" s="26" t="str">
         <f>VLOOKUP($B9,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B9,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B9,属性偏移数!A:D,4,0)</f>
@@ -4916,7 +4961,7 @@
     <row r="10" spans="1:3">
       <c r="A10" s="5"/>
       <c r="B10" s="25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C10" s="26" t="str">
         <f>VLOOKUP($B10,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B10,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B10,属性偏移数!A:D,4,0)</f>
@@ -4926,7 +4971,7 @@
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
       <c r="B11" s="25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C11" s="28" t="str">
         <f>VLOOKUP($B11,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B11,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B11,属性偏移数!A:D,4,0)</f>
@@ -4936,7 +4981,7 @@
     <row r="12" spans="1:3">
       <c r="A12" s="5"/>
       <c r="B12" s="25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C12" s="28" t="str">
         <f>VLOOKUP($B12,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B12,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B12,属性偏移数!A:D,4,0)</f>
@@ -4946,7 +4991,7 @@
     <row r="13" spans="1:3">
       <c r="A13" s="5"/>
       <c r="B13" s="25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C13" s="26" t="str">
         <f>VLOOKUP($B13,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B13,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B13,属性偏移数!A:D,4,0)</f>
@@ -4956,7 +5001,7 @@
     <row r="14" spans="1:3">
       <c r="A14" s="5"/>
       <c r="B14" s="25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C14" s="26" t="str">
         <f>VLOOKUP($B14,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B14,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B14,属性偏移数!A:D,4,0)</f>
@@ -4966,7 +5011,7 @@
     <row r="15" spans="1:3">
       <c r="A15" s="5"/>
       <c r="B15" s="25" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C15" s="26" t="str">
         <f>VLOOKUP($B15,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B15,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B15,属性偏移数!A:D,4,0)</f>
@@ -4976,7 +5021,7 @@
     <row r="16" spans="1:3">
       <c r="A16" s="5"/>
       <c r="B16" s="25" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C16" s="26" t="str">
         <f>VLOOKUP($B16,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B16,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B16,属性偏移数!A:D,4,0)</f>
@@ -5023,16 +5068,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5043,220 +5088,220 @@
         <v>0</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B3" s="14">
         <v>8</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="22" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B4" s="14">
         <v>52</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B5" s="14">
         <v>56</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B6" s="14">
         <v>60</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B7" s="14">
         <v>64</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B8" s="14">
         <v>68</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B9" s="14">
         <v>72</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B10" s="14">
         <v>76</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B11" s="14">
         <v>80</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="22" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B12" s="14">
         <v>108</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B13" s="14">
         <v>112</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B14" s="14">
         <v>200</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B15" s="14">
         <v>220</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B16" s="14">
         <v>240</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B17" s="14">
         <v>260</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5298,23 +5343,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C1" s="14">
         <f>$F$1*$A1*$F$2</f>
         <v>336</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F1" s="16">
         <v>336</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5322,20 +5367,20 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C2" s="14">
         <f t="shared" ref="C2:C18" si="0">$F$1*$A2*$F$2</f>
         <v>672</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F2" s="18">
         <v>1</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I2" s="20">
         <f>HEX2DEC(I1)+VLOOKUP(公式换算全新界面!$A$1,下拉范围!B:C,2,0)</f>
@@ -5347,7 +5392,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C3" s="14">
         <f t="shared" si="0"/>
@@ -5359,7 +5404,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" si="0"/>
@@ -5371,7 +5416,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" si="0"/>
@@ -5383,7 +5428,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" si="0"/>
@@ -5395,7 +5440,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C7" s="14">
         <f t="shared" si="0"/>
@@ -5407,7 +5452,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C8" s="14">
         <f t="shared" si="0"/>
@@ -5419,7 +5464,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C9" s="14">
         <f t="shared" si="0"/>
@@ -5431,7 +5476,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C10" s="14">
         <f t="shared" si="0"/>
@@ -5443,7 +5488,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C11" s="14">
         <f t="shared" si="0"/>
@@ -5455,7 +5500,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C12" s="14">
         <f t="shared" si="0"/>
@@ -5467,7 +5512,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C13" s="14">
         <f t="shared" si="0"/>
@@ -5479,7 +5524,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C14" s="14">
         <f t="shared" si="0"/>
@@ -5491,7 +5536,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C15" s="14">
         <f t="shared" si="0"/>
@@ -5503,7 +5548,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C16" s="14">
         <f t="shared" si="0"/>
@@ -5515,7 +5560,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C17" s="14">
         <f t="shared" si="0"/>
@@ -5527,7 +5572,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C18" s="14">
         <f t="shared" si="0"/>
@@ -5558,20 +5603,20 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D1" s="4" t="str">
         <f>DEC2HEX(B38,8)</f>
         <v>05562290</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5580,175 +5625,175 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D2" s="4" t="str">
         <f>DEC2HEX(B38+8,8)</f>
         <v>05562298</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5"/>
       <c r="B3" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D3" s="4" t="str">
         <f>DEC2HEX(B38+52,8)</f>
         <v>055622C4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5"/>
       <c r="B4" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" ref="D4:D10" si="0">DEC2HEX(B40+4,8)</f>
         <v>055622C8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>055622CC</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>055622D0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>055622D4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>055622D8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>055622DC</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>055622E0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D11" s="9" t="str">
         <f>DEC2HEX(B46+32,8)</f>
         <v>055622FC</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D12" s="9" t="str">
         <f>DEC2HEX(B47+32,8)</f>
         <v>05562300</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5757,14 +5802,14 @@
         <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D13" s="4" t="str">
         <f>DEC2HEX(B38+200,8)</f>
         <v>05562358</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5773,14 +5818,14 @@
         <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D14" s="4" t="str">
         <f>DEC2HEX(B49+20,8)</f>
         <v>0556236C</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5789,14 +5834,14 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D15" s="4" t="str">
         <f>DEC2HEX(B50+20,8)</f>
         <v>05562380</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5805,19 +5850,19 @@
         <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D16" s="4" t="str">
         <f>DEC2HEX(B51+20,8)</f>
         <v>05562394</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" hidden="1" spans="1:3">
       <c r="A17" s="10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B17" s="7">
         <f>IF(A1=A18,B18,IF(A1=A19,B19,IF(A1=A20,B20,IF(A1=A21,B21,IF(A1=A22,B22,IF(A1=A23,B23,IF(A1=A24,B24,IF(A1=A25,B25,IF(A1=A26,B26,IF(A1=A27,B27,IF(A1=A28,B28,IF(A1=A29,B29,IF(A1=A30,B30,IF(A1=A31,B31,IF(A1=A32,B32,IF(A1=A33,B33,IF(A1=A34,B34,IF(A1=A35,B35))))))))))))))))))</f>
@@ -5827,7 +5872,7 @@
     </row>
     <row r="18" hidden="1" spans="1:3">
       <c r="A18" s="11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B18" s="7">
         <v>336</v>
@@ -5836,7 +5881,7 @@
     </row>
     <row r="19" hidden="1" spans="1:5">
       <c r="A19" s="11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B19" s="7">
         <v>672</v>
@@ -5847,7 +5892,7 @@
     </row>
     <row r="20" hidden="1" spans="1:5">
       <c r="A20" s="11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B20" s="7">
         <v>1008</v>
@@ -5858,7 +5903,7 @@
     </row>
     <row r="21" hidden="1" spans="1:5">
       <c r="A21" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B21" s="7">
         <v>1344</v>
@@ -5869,7 +5914,7 @@
     </row>
     <row r="22" hidden="1" spans="1:5">
       <c r="A22" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B22" s="7">
         <v>1680</v>
@@ -5880,7 +5925,7 @@
     </row>
     <row r="23" hidden="1" spans="1:5">
       <c r="A23" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B23" s="7">
         <v>2016</v>
@@ -5891,7 +5936,7 @@
     </row>
     <row r="24" hidden="1" spans="1:5">
       <c r="A24" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B24" s="7">
         <v>2352</v>
@@ -5902,7 +5947,7 @@
     </row>
     <row r="25" hidden="1" spans="1:5">
       <c r="A25" s="11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B25" s="7">
         <v>2688</v>
@@ -5913,7 +5958,7 @@
     </row>
     <row r="26" hidden="1" spans="1:5">
       <c r="A26" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B26" s="7">
         <v>3024</v>
@@ -5924,7 +5969,7 @@
     </row>
     <row r="27" hidden="1" spans="1:5">
       <c r="A27" s="11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B27" s="7">
         <v>3360</v>
@@ -5935,7 +5980,7 @@
     </row>
     <row r="28" hidden="1" spans="1:5">
       <c r="A28" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B28" s="7">
         <v>3696</v>
@@ -5946,7 +5991,7 @@
     </row>
     <row r="29" hidden="1" spans="1:5">
       <c r="A29" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B29" s="7">
         <v>4032</v>
@@ -5957,7 +6002,7 @@
     </row>
     <row r="30" hidden="1" spans="1:5">
       <c r="A30" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B30" s="7">
         <v>4368</v>
@@ -5968,7 +6013,7 @@
     </row>
     <row r="31" hidden="1" spans="1:5">
       <c r="A31" s="11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B31" s="7">
         <v>4704</v>
@@ -5979,7 +6024,7 @@
     </row>
     <row r="32" hidden="1" spans="1:5">
       <c r="A32" s="11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B32" s="7">
         <v>5040</v>
@@ -5990,7 +6035,7 @@
     </row>
     <row r="33" hidden="1" spans="1:5">
       <c r="A33" s="11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B33" s="7">
         <v>5376</v>
@@ -6001,7 +6046,7 @@
     </row>
     <row r="34" hidden="1" spans="1:5">
       <c r="A34" s="11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B34" s="7">
         <v>5712</v>
@@ -6012,7 +6057,7 @@
     </row>
     <row r="35" hidden="1" spans="1:5">
       <c r="A35" s="11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B35" s="7">
         <v>6048</v>
@@ -6024,15 +6069,15 @@
     <row r="36" hidden="1"/>
     <row r="37" hidden="1" spans="1:2">
       <c r="A37" s="12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" hidden="1" spans="1:2">
       <c r="A38" s="12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B38" s="13">
         <f>HEX2DEC(B37)+(B17)</f>
@@ -6045,7 +6090,7 @@
     </row>
     <row r="40" hidden="1" spans="1:2">
       <c r="A40" s="12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B40" s="13">
         <f t="shared" ref="B40:B47" si="1">HEX2DEC(D3)</f>
@@ -6054,7 +6099,7 @@
     </row>
     <row r="41" hidden="1" spans="1:2">
       <c r="A41" s="12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B41" s="13">
         <f t="shared" si="1"/>
@@ -6063,7 +6108,7 @@
     </row>
     <row r="42" hidden="1" spans="1:2">
       <c r="A42" s="12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B42" s="13">
         <f t="shared" si="1"/>
@@ -6072,7 +6117,7 @@
     </row>
     <row r="43" hidden="1" spans="1:2">
       <c r="A43" s="12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B43" s="13">
         <f t="shared" si="1"/>
@@ -6081,7 +6126,7 @@
     </row>
     <row r="44" hidden="1" spans="1:2">
       <c r="A44" s="12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B44" s="13">
         <f t="shared" si="1"/>
@@ -6090,7 +6135,7 @@
     </row>
     <row r="45" hidden="1" spans="1:2">
       <c r="A45" s="12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B45" s="13">
         <f t="shared" si="1"/>
@@ -6099,7 +6144,7 @@
     </row>
     <row r="46" hidden="1" spans="1:2">
       <c r="A46" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B46" s="13">
         <f t="shared" si="1"/>
@@ -6108,7 +6153,7 @@
     </row>
     <row r="47" hidden="1" spans="1:2">
       <c r="A47" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B47" s="13">
         <f t="shared" si="1"/>
@@ -6121,7 +6166,7 @@
     </row>
     <row r="49" hidden="1" spans="1:2">
       <c r="A49" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B49" s="13">
         <f>HEX2DEC(D13)</f>
@@ -6130,7 +6175,7 @@
     </row>
     <row r="50" hidden="1" spans="1:2">
       <c r="A50" s="12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B50" s="13">
         <f>HEX2DEC(D14)</f>
@@ -6139,7 +6184,7 @@
     </row>
     <row r="51" hidden="1" spans="1:2">
       <c r="A51" s="12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B51" s="13">
         <f>HEX2DEC(D15)</f>

--- a/ポケモン不思議のダンジョン救助隊DX.xlsx
+++ b/ポケモン不思議のダンジョン救助隊DX.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23130" windowHeight="17880" tabRatio="820"/>
+    <workbookView windowHeight="18615" tabRatio="820"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
-    <sheet name="公式换算全新界面" sheetId="8" r:id="rId2"/>
+    <sheet name="公式换算" sheetId="8" r:id="rId2"/>
     <sheet name="属性偏移数" sheetId="9" state="hidden" r:id="rId3"/>
     <sheet name="下拉范围" sheetId="10" state="hidden" r:id="rId4"/>
-    <sheet name="公式换算" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
   <si>
     <t>Switch P5S自助DIY数据表 by 露易娘
 http://ruisan.blog.jp/
@@ -868,6 +867,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
       <t>最高</t>
     </r>
     <r>
@@ -2528,674 +2533,182 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>攻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>击</t>
-    </r>
-  </si>
-  <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>特攻</t>
-  </si>
-  <si>
-    <t>特防</t>
-  </si>
-  <si>
-    <t>速度</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制偏移</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>起始16</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制（</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>减少偏移</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>值</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>量）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>与偏移</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>值</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>结</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>果</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>抓取 攻</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>击</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>转</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">抓取 防御 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>转</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">抓取 特攻 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>转</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">抓取 特防 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>转</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>抓取 A</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>键</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">PP </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>转</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>抓取 B</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>键</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">PP </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>转</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>抓取 X</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>键</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">PP </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>转</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制</t>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>七</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>角色1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍七角色2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍七角色3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>八</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>角色1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍八角色2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍八角色3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>九</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>角色1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍九角色2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>队</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍九角色3</t>
     </r>
   </si>
 </sst>
@@ -3204,13 +2717,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="00000000"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3228,18 +2741,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="MS Gothic"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.35"/>
-      <name val="MS Gothic"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3311,6 +2812,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.35"/>
+      <name val="MS Gothic"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="MS Gothic"/>
@@ -3324,7 +2832,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3362,13 +2884,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3386,13 +2901,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3452,6 +2960,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -3462,9 +2978,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="MS Gothic"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -3472,13 +2987,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="MS Gothic"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3538,6 +3046,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3550,7 +3076,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3569,12 +3095,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3622,12 +3142,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3640,7 +3154,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3682,6 +3202,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3695,30 +3227,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3837,10 +3345,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3849,273 +3357,249 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4477,357 +3961,357 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="30" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="30" style="30" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="30"/>
+    <col min="1" max="1" width="5.375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="30" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="11" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="37"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="38"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="38"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="7" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="7" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="7" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="7" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="7" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="7"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="7" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" s="29" customFormat="1" spans="1:6">
-      <c r="A24" s="40" t="s">
+      <c r="E23" s="30"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" s="19" customFormat="1" spans="1:6">
+      <c r="A24" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-    </row>
-    <row r="25" s="29" customFormat="1" spans="1:6">
-      <c r="A25" s="41" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+    </row>
+    <row r="25" s="19" customFormat="1" spans="1:6">
+      <c r="A25" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="3:5">
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="4:5">
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="45"/>
+      <c r="D31" s="37"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="46"/>
+      <c r="C34" s="38"/>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="46"/>
+      <c r="C47" s="38"/>
     </row>
     <row r="60" spans="3:3">
-      <c r="C60" s="46"/>
+      <c r="C60" s="38"/>
     </row>
     <row r="66" spans="4:5">
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
     </row>
     <row r="70" spans="4:4">
-      <c r="D70" s="45"/>
+      <c r="D70" s="37"/>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="46"/>
+      <c r="C73" s="38"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="46"/>
+      <c r="B89" s="38"/>
     </row>
   </sheetData>
   <sheetProtection password="CE2A" sheet="1" objects="1"/>
@@ -4859,171 +4343,171 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="7" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9" style="24"/>
-    <col min="5" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="12.25" style="11" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="9" style="12"/>
+    <col min="5" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="26" t="str">
+      <c r="C1" s="15" t="str">
         <f>VLOOKUP($B1,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B1,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B1,属性偏移数!A:D,4,0)</f>
         <v>02000000 05562290 000003E7</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="26" t="str">
+      <c r="C2" s="15" t="str">
         <f>VLOOKUP($B2,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B2,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B2,属性偏移数!A:D,4,0)</f>
         <v>02000000 05562298 00004E20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="26" t="str">
+      <c r="C3" s="15" t="str">
         <f>VLOOKUP($B3,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B3,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B3,属性偏移数!A:D,4,0)</f>
         <v>02000000 055622C4 000001F4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="26" t="str">
+      <c r="C4" s="15" t="str">
         <f>VLOOKUP($B4,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B4,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B4,属性偏移数!A:D,4,0)</f>
         <v>02000000 055622C8 000001F4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="26" t="str">
+      <c r="C5" s="15" t="str">
         <f>VLOOKUP($B5,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B5,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B5,属性偏移数!A:D,4,0)</f>
         <v>02000000 055622CC 000001F4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="26" t="str">
+      <c r="C6" s="15" t="str">
         <f>VLOOKUP($B6,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B6,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B6,属性偏移数!A:D,4,0)</f>
         <v>02000000 055622D0 000001F4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="26" t="str">
+      <c r="C7" s="15" t="str">
         <f>VLOOKUP($B7,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B7,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B7,属性偏移数!A:D,4,0)</f>
         <v>02000000 055622D4 000001F4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="26" t="str">
+      <c r="C8" s="15" t="str">
         <f>VLOOKUP($B8,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B8,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B8,属性偏移数!A:D,4,0)</f>
         <v>02000000 055622D8 000001F4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="26" t="str">
+      <c r="C9" s="15" t="str">
         <f>VLOOKUP($B9,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B9,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B9,属性偏移数!A:D,4,0)</f>
         <v>02000000 055622DC 000001F4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="26" t="str">
+      <c r="C10" s="15" t="str">
         <f>VLOOKUP($B10,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B10,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B10,属性偏移数!A:D,4,0)</f>
         <v>02000000 055622E0 000001F4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="28" t="str">
+      <c r="C11" s="18" t="str">
         <f>VLOOKUP($B11,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B11,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B11,属性偏移数!A:D,4,0)</f>
         <v>02000000 055622FC 000001F4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="28" t="str">
+      <c r="C12" s="18" t="str">
         <f>VLOOKUP($B12,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B12,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B12,属性偏移数!A:D,4,0)</f>
         <v>02000000 05562300 000001F4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="26" t="str">
+      <c r="C13" s="15" t="str">
         <f>VLOOKUP($B13,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B13,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B13,属性偏移数!A:D,4,0)</f>
         <v>01000000 05562358 00000023</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="26" t="str">
+      <c r="C14" s="15" t="str">
         <f>VLOOKUP($B14,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B14,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B14,属性偏移数!A:D,4,0)</f>
         <v>01000000 0556236C 00000023</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="26" t="str">
+      <c r="C15" s="15" t="str">
         <f>VLOOKUP($B15,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B15,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B15,属性偏移数!A:D,4,0)</f>
         <v>01000000 05562380 00000023</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="26" t="str">
+      <c r="C16" s="15" t="str">
         <f>VLOOKUP($B16,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B16,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B16,属性偏移数!A:D,4,0)</f>
         <v>01000000 05562394 00000023</v>
       </c>
@@ -5039,7 +4523,7 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="A1:A16">
-      <formula1>下拉范围!$B$1:$B$18</formula1>
+      <formula1>下拉范围!$B$1:$B$27</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5060,247 +4544,247 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="14" customWidth="1"/>
-    <col min="3" max="4" width="9.5" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="1">
         <v>8</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="1">
         <v>52</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="1">
         <v>56</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="1">
         <v>60</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="1">
         <v>64</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="1">
         <v>68</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="1">
         <v>72</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="1">
         <v>76</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="1">
         <v>80</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="1">
         <v>108</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="1">
         <v>112</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="1">
         <v>200</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="1">
         <v>220</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="1">
         <v>240</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="1">
         <v>260</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5318,7 +4802,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5326,885 +4810,369 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="14" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="11.5" style="14" customWidth="1"/>
-    <col min="6" max="6" width="4.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="32.875" style="14" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="32.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="14">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="14">
+      <c r="C1" s="1">
         <f>$F$1*$A1*$F$2</f>
         <v>336</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="16">
+      <c r="F1" s="3">
         <v>336</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="14">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="1">
         <f t="shared" ref="C2:C18" si="0">$F$1*$A2*$F$2</f>
         <v>672</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="5">
         <v>1</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="20">
-        <f>HEX2DEC(I1)+VLOOKUP(公式换算全新界面!$A$1,下拉范围!B:C,2,0)</f>
+      <c r="I2" s="7">
+        <f>HEX2DEC(I1)+VLOOKUP(公式换算!$A$1,下拉范围!B:C,2,0)</f>
         <v>89531024</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="14">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="1">
         <f t="shared" si="0"/>
         <v>1008</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="14">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="1">
         <f t="shared" si="0"/>
         <v>1344</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="14">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
         <v>1680</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="14">
+      <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="14">
+      <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>2352</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="14">
+      <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>2688</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="14">
+      <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>3024</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="14">
+      <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>3360</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="14">
+      <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>3696</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="14">
+      <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>4032</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="14">
+      <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>4368</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="14">
+      <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>4704</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="14">
+      <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>5040</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="14">
+      <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>5376</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="14">
+      <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>5712</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="14">
+      <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>6048</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="1">
+        <f>$F$1*$A19*$F$2</f>
+        <v>6384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" ref="C20:C27" si="1">$F$1*$A20*$F$2</f>
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="1"/>
+        <v>7056</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="1"/>
+        <v>7392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="1"/>
+        <v>7728</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="1"/>
+        <v>8064</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="1"/>
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="1"/>
+        <v>8736</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="1"/>
+        <v>9072</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
-    <col min="2" max="7" width="9.375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="4" t="str">
-        <f>DEC2HEX(B38,8)</f>
-        <v>05562290</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="4" t="str">
-        <f>DEC2HEX(B38+8,8)</f>
-        <v>05562298</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="4" t="str">
-        <f>DEC2HEX(B38+52,8)</f>
-        <v>055622C4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="4" t="str">
-        <f t="shared" ref="D4:D10" si="0">DEC2HEX(B40+4,8)</f>
-        <v>055622C8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>055622CC</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>055622D0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>055622D4</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>055622D8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>055622DC</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>055622E0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="9" t="str">
-        <f>DEC2HEX(B46+32,8)</f>
-        <v>055622FC</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="9" t="str">
-        <f>DEC2HEX(B47+32,8)</f>
-        <v>05562300</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="4" t="str">
-        <f>DEC2HEX(B38+200,8)</f>
-        <v>05562358</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="4" t="str">
-        <f>DEC2HEX(B49+20,8)</f>
-        <v>0556236C</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="4" t="str">
-        <f>DEC2HEX(B50+20,8)</f>
-        <v>05562380</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="4" t="str">
-        <f>DEC2HEX(B51+20,8)</f>
-        <v>05562394</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" hidden="1" spans="1:3">
-      <c r="A17" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="7">
-        <f>IF(A1=A18,B18,IF(A1=A19,B19,IF(A1=A20,B20,IF(A1=A21,B21,IF(A1=A22,B22,IF(A1=A23,B23,IF(A1=A24,B24,IF(A1=A25,B25,IF(A1=A26,B26,IF(A1=A27,B27,IF(A1=A28,B28,IF(A1=A29,B29,IF(A1=A30,B30,IF(A1=A31,B31,IF(A1=A32,B32,IF(A1=A33,B33,IF(A1=A34,B34,IF(A1=A35,B35))))))))))))))))))</f>
-        <v>336</v>
-      </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" hidden="1" spans="1:3">
-      <c r="A18" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="7">
-        <v>336</v>
-      </c>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" hidden="1" spans="1:5">
-      <c r="A19" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="7">
-        <v>672</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" hidden="1" spans="1:5">
-      <c r="A20" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="7">
-        <v>1008</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" hidden="1" spans="1:5">
-      <c r="A21" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="7">
-        <v>1344</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" hidden="1" spans="1:5">
-      <c r="A22" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="7">
-        <v>1680</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" hidden="1" spans="1:5">
-      <c r="A23" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="7">
-        <v>2016</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" hidden="1" spans="1:5">
-      <c r="A24" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="7">
-        <v>2352</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" hidden="1" spans="1:5">
-      <c r="A25" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="7">
-        <v>2688</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" hidden="1" spans="1:5">
-      <c r="A26" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="7">
-        <v>3024</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" hidden="1" spans="1:5">
-      <c r="A27" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="7">
-        <v>3360</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" hidden="1" spans="1:5">
-      <c r="A28" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="7">
-        <v>3696</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" hidden="1" spans="1:5">
-      <c r="A29" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="7">
-        <v>4032</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" hidden="1" spans="1:5">
-      <c r="A30" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="7">
-        <v>4368</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" hidden="1" spans="1:5">
-      <c r="A31" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="7">
-        <v>4704</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" hidden="1" spans="1:5">
-      <c r="A32" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="7">
-        <v>5040</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" hidden="1" spans="1:5">
-      <c r="A33" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="7">
-        <v>5376</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" hidden="1" spans="1:5">
-      <c r="A34" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="7">
-        <v>5712</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" hidden="1" spans="1:5">
-      <c r="A35" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="7">
-        <v>6048</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" hidden="1"/>
-    <row r="37" hidden="1" spans="1:2">
-      <c r="A37" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" hidden="1" spans="1:2">
-      <c r="A38" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" s="13">
-        <f>HEX2DEC(B37)+(B17)</f>
-        <v>89531024</v>
-      </c>
-    </row>
-    <row r="39" hidden="1" spans="1:2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" hidden="1" spans="1:2">
-      <c r="A40" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" s="13">
-        <f t="shared" ref="B40:B47" si="1">HEX2DEC(D3)</f>
-        <v>89531076</v>
-      </c>
-    </row>
-    <row r="41" hidden="1" spans="1:2">
-      <c r="A41" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B41" s="13">
-        <f t="shared" si="1"/>
-        <v>89531080</v>
-      </c>
-    </row>
-    <row r="42" hidden="1" spans="1:2">
-      <c r="A42" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B42" s="13">
-        <f t="shared" si="1"/>
-        <v>89531084</v>
-      </c>
-    </row>
-    <row r="43" hidden="1" spans="1:2">
-      <c r="A43" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43" s="13">
-        <f t="shared" si="1"/>
-        <v>89531088</v>
-      </c>
-    </row>
-    <row r="44" hidden="1" spans="1:2">
-      <c r="A44" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="13">
-        <f t="shared" si="1"/>
-        <v>89531092</v>
-      </c>
-    </row>
-    <row r="45" hidden="1" spans="1:2">
-      <c r="A45" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B45" s="13">
-        <f t="shared" si="1"/>
-        <v>89531096</v>
-      </c>
-    </row>
-    <row r="46" hidden="1" spans="1:2">
-      <c r="A46" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" s="13">
-        <f t="shared" si="1"/>
-        <v>89531100</v>
-      </c>
-    </row>
-    <row r="47" hidden="1" spans="1:2">
-      <c r="A47" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" s="13">
-        <f t="shared" si="1"/>
-        <v>89531104</v>
-      </c>
-    </row>
-    <row r="48" hidden="1" spans="1:2">
-      <c r="A48" s="12"/>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" hidden="1" spans="1:2">
-      <c r="A49" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" s="13">
-        <f>HEX2DEC(D13)</f>
-        <v>89531224</v>
-      </c>
-    </row>
-    <row r="50" hidden="1" spans="1:2">
-      <c r="A50" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B50" s="13">
-        <f>HEX2DEC(D14)</f>
-        <v>89531244</v>
-      </c>
-    </row>
-    <row r="51" hidden="1" spans="1:2">
-      <c r="A51" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B51" s="13">
-        <f>HEX2DEC(D15)</f>
-        <v>89531264</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection password="CE2A" sheet="1" objects="1"/>
-  <protectedRanges>
-    <protectedRange sqref="A1" name="区域1" securityDescriptor=""/>
-  </protectedRanges>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A16"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="A1:A16">
-      <formula1>$A$18:$A$35</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/ポケモン不思議のダンジョン救助隊DX.xlsx
+++ b/ポケモン不思議のダンジョン救助隊DX.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
   <si>
     <t>Switch P5S自助DIY数据表 by 露易娘
 http://ruisan.blog.jp/
@@ -75,6 +75,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="128"/>
+      </rPr>
       <t>占用</t>
     </r>
     <r>
@@ -184,6 +190,108 @@
     <t>MAIN+0x05562394</t>
   </si>
   <si>
+    <t>迷宫加入角色
+起始1</t>
+  </si>
+  <si>
+    <t>MAIN+0x05564318</t>
+  </si>
+  <si>
+    <r>
+      <t>角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>隔+150,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">05564468 </t>
+    </r>
+  </si>
+  <si>
+    <t>MAIN+0x0556431C</t>
+  </si>
+  <si>
+    <t>MAIN+0x05564320</t>
+  </si>
+  <si>
+    <t>MAIN+0x05564328</t>
+  </si>
+  <si>
+    <t>MAIN+0x0556432C</t>
+  </si>
+  <si>
+    <t>MAIN+0x0556434C</t>
+  </si>
+  <si>
+    <t>MAIN+0x05564350</t>
+  </si>
+  <si>
+    <t>MAIN+0x05564354</t>
+  </si>
+  <si>
+    <t>MAIN+0x05564358</t>
+  </si>
+  <si>
+    <t>MAIN+0x0556435C</t>
+  </si>
+  <si>
+    <t>MAIN+0x05564360</t>
+  </si>
+  <si>
+    <t>MAIN+0x05564364</t>
+  </si>
+  <si>
+    <t>MAIN+0x05564368</t>
+  </si>
+  <si>
+    <t>MAIN+0x05564384</t>
+  </si>
+  <si>
+    <t>MAIN+0x05564388</t>
+  </si>
+  <si>
+    <t>身上金钱</t>
+  </si>
+  <si>
+    <t>MAIN+0x05566B24</t>
+  </si>
+  <si>
+    <t>银行金钱</t>
+  </si>
+  <si>
+    <t>MAIN+0x05566B38</t>
+  </si>
+  <si>
     <t>救助队ランク经验</t>
   </si>
   <si>
@@ -196,39 +304,10 @@
     <t>仓库数量初始位置</t>
   </si>
   <si>
-    <t>[main+54d4720] + 24770</t>
-  </si>
-  <si>
-    <r>
-      <t>间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="MS Gothic"/>
-        <charset val="128"/>
-      </rPr>
-      <t>隔+80，循</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="128"/>
-      </rPr>
-      <t>环</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="MS Gothic"/>
-        <charset val="128"/>
-      </rPr>
-      <t>192次</t>
-    </r>
+    <t>[MAIN+54D4720] + 24770</t>
+  </si>
+  <si>
+    <t>间隔+80，循环192次</t>
   </si>
   <si>
     <t>(迷宫内BUFF)最高500,迷宫中升级全部都满255，营地里查看数值为正常增长,速度会被固定修改所以不建议使用</t>
@@ -702,6 +781,9 @@
     </r>
   </si>
   <si>
+    <t>入队角色1</t>
+  </si>
+  <si>
     <t>参数</t>
   </si>
   <si>
@@ -2120,6 +2202,107 @@
         <charset val="134"/>
       </rPr>
       <t>伍九角色3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>入队角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>055641C8</t>
+  </si>
+  <si>
+    <r>
+      <t>入队角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>入队角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>入队角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>入队角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>入队角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>入队角色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
     </r>
   </si>
 </sst>
@@ -2128,11 +2311,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="00000000"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -2306,31 +2489,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2368,8 +2528,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2377,7 +2538,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2390,9 +2574,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2426,8 +2609,8 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="MS Gothic"/>
-      <charset val="128"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -2475,30 +2658,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2506,12 +2665,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2535,13 +2688,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2571,12 +2724,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2589,19 +2736,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2614,12 +2755,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2644,6 +2779,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2696,6 +2879,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2722,30 +2929,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2762,7 +2945,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2774,34 +2957,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2810,7 +2993,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2819,92 +3002,92 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2962,6 +3145,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3004,6 +3193,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3011,9 +3209,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3022,7 +3217,10 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3376,61 +3574,61 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="30" style="20" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="5.375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="24.875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="19.875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="29.75" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
@@ -3443,10 +3641,10 @@
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -3455,14 +3653,14 @@
       <c r="D6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
@@ -3473,22 +3671,22 @@
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="28" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
@@ -3499,48 +3697,48 @@
       <c r="F9" s="12"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="27" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="29" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="32" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="31"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="12" t="s">
         <v>23</v>
       </c>
@@ -3548,11 +3746,11 @@
         <v>24</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="31"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="12" t="s">
         <v>25</v>
       </c>
@@ -3563,8 +3761,8 @@
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="12" t="s">
         <v>27</v>
       </c>
@@ -3575,8 +3773,8 @@
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="12" t="s">
         <v>29</v>
       </c>
@@ -3587,8 +3785,8 @@
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="12" t="s">
         <v>31</v>
       </c>
@@ -3599,8 +3797,8 @@
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="12" t="s">
         <v>33</v>
       </c>
@@ -3611,157 +3809,326 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="32" t="s">
         <v>37</v>
       </c>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="34" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="32" t="s">
         <v>42</v>
       </c>
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="27" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="31"/>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="20" t="s">
+      <c r="E24" s="33"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="20" t="s">
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="34" t="s">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="35" t="s">
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="4:4">
-      <c r="D31" s="36"/>
-    </row>
-    <row r="32" s="19" customFormat="1" spans="1:6">
-      <c r="A32" s="37" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-    </row>
-    <row r="33" s="19" customFormat="1" spans="1:6">
-      <c r="A33" s="38" t="s">
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="39"/>
-    </row>
-    <row r="47" spans="3:3">
-      <c r="C47" s="39"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="C44" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" s="21" customFormat="1" spans="1:6">
+      <c r="A46" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+    </row>
+    <row r="47" s="21" customFormat="1" spans="1:6">
+      <c r="A47" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
     </row>
     <row r="60" spans="3:3">
-      <c r="C60" s="39"/>
+      <c r="C60" s="36"/>
     </row>
     <row r="66" spans="4:5">
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
     </row>
     <row r="70" spans="4:4">
-      <c r="D70" s="36"/>
+      <c r="D70" s="44"/>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="39"/>
+      <c r="C73" s="36"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="39"/>
+      <c r="B89" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <sheetProtection password="CE2A" sheet="1" objects="1"/>
+  <mergeCells count="8">
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
     <mergeCell ref="A6:A24"/>
     <mergeCell ref="B6:B24"/>
     <mergeCell ref="A1:D3"/>
     <mergeCell ref="E1:F3"/>
+    <mergeCell ref="A25:B39"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3774,10 +4141,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A17"/>
+      <selection activeCell="A19" sqref="A19:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3791,7 +4158,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="14" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>5</v>
@@ -3808,7 +4175,7 @@
     <row r="2" spans="1:4">
       <c r="A2" s="14"/>
       <c r="B2" s="17" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C2" s="16" t="str">
         <f>VLOOKUP($B2,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B2,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B2,属性偏移数!A:D,4,0)</f>
@@ -3836,7 +4203,7 @@
     <row r="4" spans="1:4">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C4" s="16" t="str">
         <f>VLOOKUP($B4,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B4,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B4,属性偏移数!A:D,4,0)</f>
@@ -3850,7 +4217,7 @@
     <row r="5" spans="1:4">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C5" s="16" t="str">
         <f>VLOOKUP($B5,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B5,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B5,属性偏移数!A:D,4,0)</f>
@@ -3864,7 +4231,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C6" s="16" t="str">
         <f>VLOOKUP($B6,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B6,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B6,属性偏移数!A:D,4,0)</f>
@@ -3878,7 +4245,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C7" s="16" t="str">
         <f>VLOOKUP($B7,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B7,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B7,属性偏移数!A:D,4,0)</f>
@@ -3892,7 +4259,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="14"/>
       <c r="B8" s="15" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C8" s="16" t="str">
         <f>VLOOKUP($B8,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B8,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B8,属性偏移数!A:D,4,0)</f>
@@ -3906,7 +4273,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="14"/>
       <c r="B9" s="15" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C9" s="16" t="str">
         <f>VLOOKUP($B9,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B9,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B9,属性偏移数!A:D,4,0)</f>
@@ -3920,7 +4287,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C10" s="16" t="str">
         <f>VLOOKUP($B10,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B10,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B10,属性偏移数!A:D,4,0)</f>
@@ -3934,7 +4301,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="14"/>
       <c r="B11" s="15" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C11" s="16" t="str">
         <f>VLOOKUP($B11,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B11,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B11,属性偏移数!A:D,4,0)</f>
@@ -3948,7 +4315,7 @@
     <row r="12" spans="1:4">
       <c r="A12" s="14"/>
       <c r="B12" s="15" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C12" s="18" t="str">
         <f>VLOOKUP($B12,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B12,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B12,属性偏移数!A:D,4,0)</f>
@@ -3962,7 +4329,7 @@
     <row r="13" spans="1:4">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C13" s="18" t="str">
         <f>VLOOKUP($B13,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B13,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B13,属性偏移数!A:D,4,0)</f>
@@ -3976,7 +4343,7 @@
     <row r="14" spans="1:4">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C14" s="16" t="str">
         <f>VLOOKUP($B14,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B14,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B14,属性偏移数!A:D,4,0)</f>
@@ -3990,7 +4357,7 @@
     <row r="15" spans="1:4">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C15" s="16" t="str">
         <f>VLOOKUP($B15,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B15,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B15,属性偏移数!A:D,4,0)</f>
@@ -4004,7 +4371,7 @@
     <row r="16" spans="1:4">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C16" s="16" t="str">
         <f>VLOOKUP($B16,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B16,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B16,属性偏移数!A:D,4,0)</f>
@@ -4018,7 +4385,7 @@
     <row r="17" spans="1:4">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C17" s="16" t="str">
         <f>VLOOKUP($B17,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$2+VLOOKUP($B17,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B17,属性偏移数!A:D,4,0)</f>
@@ -4027,6 +4394,190 @@
       <c r="D17" s="13" t="str">
         <f t="shared" si="0"/>
         <v>01000000 05562394 00000023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="16" t="str">
+        <f>VLOOKUP($B19,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$29+VLOOKUP($B19,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B19,属性偏移数!A:D,4,0)</f>
+        <v>02000000 05564318 000003E7</v>
+      </c>
+      <c r="D19" s="20" t="str">
+        <f>C19</f>
+        <v>02000000 05564318 000003E7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="19"/>
+      <c r="B20" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="16" t="str">
+        <f>VLOOKUP($B20,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$29+VLOOKUP($B20,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B20,属性偏移数!A:D,4,0)</f>
+        <v>02000000 05564320 00004E20</v>
+      </c>
+      <c r="D20" s="20" t="str">
+        <f t="shared" ref="D20:D31" si="1">C20</f>
+        <v>02000000 05564320 00004E20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="19"/>
+      <c r="B21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="16" t="str">
+        <f>VLOOKUP($B21,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$29+VLOOKUP($B21,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B21,属性偏移数!A:D,4,0)</f>
+        <v>04000000 0556432C 0098967F</v>
+      </c>
+      <c r="D21" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>04000000 0556432C 0098967F</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="19"/>
+      <c r="B22" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="16" t="str">
+        <f>VLOOKUP($B22,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$29+VLOOKUP($B22,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B22,属性偏移数!A:D,4,0)</f>
+        <v>02000000 0556434C 000001F4</v>
+      </c>
+      <c r="D22" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>02000000 0556434C 000001F4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="19"/>
+      <c r="B23" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="16" t="str">
+        <f>VLOOKUP($B23,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$29+VLOOKUP($B23,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B23,属性偏移数!A:D,4,0)</f>
+        <v>02000000 05564350 000001F4</v>
+      </c>
+      <c r="D23" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>02000000 05564350 000001F4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="19"/>
+      <c r="B24" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="16" t="str">
+        <f>VLOOKUP($B24,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$29+VLOOKUP($B24,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B24,属性偏移数!A:D,4,0)</f>
+        <v>02000000 05564354 000001F4</v>
+      </c>
+      <c r="D24" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>02000000 05564354 000001F4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="19"/>
+      <c r="B25" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="16" t="str">
+        <f>VLOOKUP($B25,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$29+VLOOKUP($B25,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B25,属性偏移数!A:D,4,0)</f>
+        <v>02000000 05564358 000001F4</v>
+      </c>
+      <c r="D25" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>02000000 05564358 000001F4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="19"/>
+      <c r="B26" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="16" t="str">
+        <f>VLOOKUP($B26,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$29+VLOOKUP($B26,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B26,属性偏移数!A:D,4,0)</f>
+        <v>02000000 0556435C 000001F4</v>
+      </c>
+      <c r="D26" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>02000000 0556435C 000001F4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="19"/>
+      <c r="B27" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="16" t="str">
+        <f>VLOOKUP($B27,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$29+VLOOKUP($B27,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B27,属性偏移数!A:D,4,0)</f>
+        <v>02000000 05564360 000001F4</v>
+      </c>
+      <c r="D27" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>02000000 05564360 000001F4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="19"/>
+      <c r="B28" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="16" t="str">
+        <f>VLOOKUP($B28,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$29+VLOOKUP($B28,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B28,属性偏移数!A:D,4,0)</f>
+        <v>02000000 05564364 000001F4</v>
+      </c>
+      <c r="D28" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>02000000 05564364 000001F4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="19"/>
+      <c r="B29" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="16" t="str">
+        <f>VLOOKUP($B29,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$29+VLOOKUP($B29,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B29,属性偏移数!A:D,4,0)</f>
+        <v>02000000 05564368 000001F4</v>
+      </c>
+      <c r="D29" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>02000000 05564368 000001F4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="19"/>
+      <c r="B30" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="16" t="str">
+        <f>VLOOKUP($B30,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$29+VLOOKUP($B30,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B30,属性偏移数!A:D,4,0)</f>
+        <v>02000000 05564384 000001F4</v>
+      </c>
+      <c r="D30" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>02000000 05564384 000001F4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="19"/>
+      <c r="B31" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="16" t="str">
+        <f>VLOOKUP($B31,属性偏移数!A:C,3,0)&amp;" "&amp;DEC2HEX(下拉范围!$I$29+VLOOKUP($B31,属性偏移数!A:B,2,0),8)&amp;" "&amp;VLOOKUP($B31,属性偏移数!A:D,4,0)</f>
+        <v>02000000 05564388 000001F4</v>
+      </c>
+      <c r="D31" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>02000000 05564388 000001F4</v>
       </c>
     </row>
   </sheetData>
@@ -4034,11 +4585,16 @@
   <protectedRanges>
     <protectedRange sqref="A1" name="区域1_2" securityDescriptor="O:WDG:WDD:"/>
     <protectedRange sqref="A1" name="区域2" securityDescriptor=""/>
+    <protectedRange sqref="A19" name="区域3" securityDescriptor=""/>
   </protectedRanges>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:A17"/>
+    <mergeCell ref="A19:A31"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19">
+      <formula1>下拉范围!$B$28:$B$34</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="A1:A16">
       <formula1>下拉范围!$B$1:$B$27</formula1>
     </dataValidation>
@@ -4056,7 +4612,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4069,16 +4625,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4089,24 +4645,24 @@
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="10" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1">
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4117,209 +4673,210 @@
         <v>20</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1">
         <v>52</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="B6" s="1">
         <v>56</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="B7" s="1">
         <v>60</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="B8" s="1">
         <v>64</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B9" s="1">
         <v>68</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="9" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B10" s="1">
         <v>72</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="B11" s="1">
         <v>76</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B12" s="1">
         <v>80</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B13" s="1">
         <v>108</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B14" s="1">
         <v>112</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="B15" s="1">
         <v>200</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B16" s="1">
         <v>220</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="B17" s="1">
         <v>240</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B18" s="1">
         <v>260</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="CE2A" sheet="1" objects="1"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
@@ -4333,10 +4890,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4358,23 +4915,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1">
         <f>$F$1*$A1*$F$2</f>
         <v>336</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="F1" s="3">
         <v>336</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4382,20 +4939,20 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C18" si="0">$F$1*$A2*$F$2</f>
         <v>672</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="I2" s="7">
         <f>HEX2DEC(I1)+VLOOKUP(公式换算!$A$1,下拉范围!B:C,2,0)</f>
@@ -4407,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
@@ -4419,7 +4976,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
@@ -4431,7 +4988,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
@@ -4443,7 +5000,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
@@ -4455,7 +5012,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
@@ -4467,7 +5024,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -4479,7 +5036,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
@@ -4491,7 +5048,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
@@ -4503,7 +5060,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
@@ -4515,7 +5072,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
@@ -4527,7 +5084,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
@@ -4539,7 +5096,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -4551,7 +5108,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
@@ -4563,7 +5120,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
@@ -4575,7 +5132,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
@@ -4587,7 +5144,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
@@ -4599,7 +5156,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="C19" s="1">
         <f>$F$1*$A19*$F$2</f>
@@ -4611,7 +5168,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ref="C20:C27" si="1">$F$1*$A20*$F$2</f>
@@ -4623,7 +5180,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="1"/>
@@ -4635,7 +5192,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
@@ -4647,7 +5204,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
@@ -4659,7 +5216,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
@@ -4671,7 +5228,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
@@ -4683,7 +5240,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="1"/>
@@ -4695,14 +5252,112 @@
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="1"/>
         <v>9072</v>
       </c>
     </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="1">
+        <f>$F$1*$A28*$F$2</f>
+        <v>336</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="1">
+        <f>$F$1*$A29*$F$2</f>
+        <v>672</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29" s="7">
+        <f>HEX2DEC(I28)+VLOOKUP(公式换算!$A$19,下拉范围!B:C,2,0)</f>
+        <v>89539352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="1">
+        <f>$F$1*$A30*$F$2</f>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="1">
+        <f>$F$1*$A31*$F$2</f>
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="1">
+        <f>$F$1*$A32*$F$2</f>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>6</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="1">
+        <f>$F$1*$A33*$F$2</f>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="1">
+        <f>$F$1*$A34*$F$2</f>
+        <v>2352</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetProtection password="CE2A" sheet="1" objects="1"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/ポケモン不思議のダンジョン救助隊DX.xlsx
+++ b/ポケモン不思議のダンジョン救助隊DX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18825" windowHeight="17880" tabRatio="820"/>
+    <workbookView windowWidth="18795" windowHeight="17925" tabRatio="820"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
   <si>
-    <t>Switch P5S自助DIY数据表 by 露易娘
+    <t>Switch 救助隊DX自助DIY数据表 by 露易娘
 http://ruisan.blog.jp/
 https://weibo.com/ruisan/</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>角色</t>
     </r>
     <r>
@@ -2206,6 +2212,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>入队角色</t>
     </r>
     <r>
@@ -2223,6 +2235,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>入队角色</t>
     </r>
     <r>
@@ -2237,6 +2255,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>入队角色</t>
     </r>
     <r>
@@ -2251,6 +2275,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>入队角色</t>
     </r>
     <r>
@@ -2265,6 +2295,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>入队角色</t>
     </r>
     <r>
@@ -2279,6 +2315,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>入队角色</t>
     </r>
     <r>
@@ -2293,6 +2335,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>入队角色</t>
     </r>
     <r>
@@ -2311,10 +2359,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="00000000"/>
   </numFmts>
   <fonts count="43">
@@ -2489,6 +2537,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -2528,9 +2599,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2538,22 +2608,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2569,13 +2624,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2658,13 +2706,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2682,25 +2748,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2718,7 +2772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2731,66 +2785,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2814,19 +2808,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2879,30 +2927,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2929,6 +2953,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2945,55 +2993,55 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3002,92 +3050,92 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3166,9 +3214,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3195,9 +3240,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3574,7 +3616,7 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A1" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3623,12 +3665,12 @@
       <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
@@ -3641,10 +3683,10 @@
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -3653,14 +3695,14 @@
       <c r="D6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
@@ -3671,22 +3713,22 @@
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
@@ -3697,48 +3739,48 @@
       <c r="F9" s="12"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="29" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="31" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="33"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="12" t="s">
         <v>23</v>
       </c>
@@ -3746,11 +3788,11 @@
         <v>24</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="33"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="12" t="s">
         <v>25</v>
       </c>
@@ -3761,8 +3803,8 @@
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="12" t="s">
         <v>27</v>
       </c>
@@ -3773,8 +3815,8 @@
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="12" t="s">
         <v>29</v>
       </c>
@@ -3785,8 +3827,8 @@
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="12" t="s">
         <v>31</v>
       </c>
@@ -3797,8 +3839,8 @@
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="12" t="s">
         <v>33</v>
       </c>
@@ -3809,101 +3851,101 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" s="31" t="s">
         <v>37</v>
       </c>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="33" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="31" t="s">
         <v>42</v>
       </c>
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="26" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="33"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="33"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="35" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="26" t="s">
         <v>52</v>
       </c>
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="37" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="20" t="s">
@@ -3911,9 +3953,9 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="37" t="s">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="20" t="s">
@@ -3921,9 +3963,9 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="37" t="s">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="35" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="20" t="s">
@@ -3931,9 +3973,9 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="29" t="s">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="20" t="s">
@@ -3941,9 +3983,9 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="37" t="s">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="20" t="s">
@@ -3951,9 +3993,9 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="37" t="s">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="35" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="20" t="s">
@@ -3961,9 +4003,9 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="37" t="s">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="20" t="s">
@@ -3971,9 +4013,9 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="37" t="s">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="20" t="s">
@@ -3981,9 +4023,9 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="37" t="s">
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="20" t="s">
@@ -3991,9 +4033,9 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="37" t="s">
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="20" t="s">
@@ -4001,9 +4043,9 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="37" t="s">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35" t="s">
         <v>31</v>
       </c>
       <c r="D36" s="20" t="s">
@@ -4011,9 +4053,9 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="37" t="s">
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="35" t="s">
         <v>33</v>
       </c>
       <c r="D37" s="20" t="s">
@@ -4021,9 +4063,9 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="37" t="s">
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="20" t="s">
@@ -4031,9 +4073,9 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="37" t="s">
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="35" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="20" t="s">
@@ -4041,7 +4083,7 @@
       </c>
     </row>
     <row r="41" spans="3:4">
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="28" t="s">
         <v>67</v>
       </c>
       <c r="D41" s="12" t="s">
@@ -4049,7 +4091,7 @@
       </c>
     </row>
     <row r="42" spans="3:4">
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="28" t="s">
         <v>69</v>
       </c>
       <c r="D42" s="12" t="s">
@@ -4063,7 +4105,7 @@
       <c r="D43" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="38" t="s">
+      <c r="E43" s="36" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4071,52 +4113,52 @@
       <c r="C44" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="39" t="s">
+      <c r="D44" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="38" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="46" s="21" customFormat="1" spans="1:6">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
     </row>
     <row r="47" s="21" customFormat="1" spans="1:6">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
     </row>
     <row r="60" spans="3:3">
-      <c r="C60" s="36"/>
+      <c r="C60" s="35"/>
     </row>
     <row r="66" spans="4:5">
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
     </row>
     <row r="70" spans="4:4">
-      <c r="D70" s="44"/>
+      <c r="D70" s="42"/>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="36"/>
+      <c r="C73" s="35"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="36"/>
+      <c r="B89" s="35"/>
     </row>
   </sheetData>
   <sheetProtection password="CE2A" sheet="1" objects="1"/>
@@ -4144,7 +4186,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A31"/>
+      <selection activeCell="A1" sqref="A1:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
